--- a/b_excel_automation/벤더리스트.xlsx
+++ b/b_excel_automation/벤더리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocean\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeongrok/git/python/fastcampus-python-automation/b_excel_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5BCF9-C606-4E2F-975D-2BCE265211D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A8BDA-B5A0-7A45-916E-450137A39884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18915" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="1960" windowWidth="18920" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="입점확정업체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="514">
   <si>
     <t>No.</t>
   </si>
@@ -103,30 +103,12 @@
     <t>로하스</t>
   </si>
   <si>
-    <t>흄</t>
-  </si>
-  <si>
     <t>리스너</t>
   </si>
   <si>
-    <t>베아</t>
-  </si>
-  <si>
-    <t>차우</t>
-  </si>
-  <si>
-    <t>무치</t>
-  </si>
-  <si>
     <t>유니버스</t>
   </si>
   <si>
-    <t>노아</t>
-  </si>
-  <si>
-    <t>키텐</t>
-  </si>
-  <si>
     <t>페어리</t>
   </si>
   <si>
@@ -136,30 +118,9 @@
     <t>오픈도어스</t>
   </si>
   <si>
-    <t>슈가</t>
-  </si>
-  <si>
-    <t>델린</t>
-  </si>
-  <si>
     <t>티코스</t>
   </si>
   <si>
-    <t>시저</t>
-  </si>
-  <si>
-    <t>빈</t>
-  </si>
-  <si>
-    <t>제나</t>
-  </si>
-  <si>
-    <t>퓨린</t>
-  </si>
-  <si>
-    <t>씨네</t>
-  </si>
-  <si>
     <t>케이트</t>
   </si>
   <si>
@@ -169,45 +130,21 @@
     <t>커트넥</t>
   </si>
   <si>
-    <t>버드</t>
-  </si>
-  <si>
     <t>린스토리</t>
   </si>
   <si>
-    <t>타이</t>
-  </si>
-  <si>
     <t>유스페이스</t>
   </si>
   <si>
-    <t>피어스</t>
-  </si>
-  <si>
     <t>치트타임</t>
   </si>
   <si>
     <t>나이트헌트</t>
   </si>
   <si>
-    <t>미스틱</t>
-  </si>
-  <si>
-    <t>누들링</t>
-  </si>
-  <si>
-    <t>트라이</t>
-  </si>
-  <si>
-    <t>엑스</t>
-  </si>
-  <si>
     <t>네임드</t>
   </si>
   <si>
-    <t>무브</t>
-  </si>
-  <si>
     <t>어라운드</t>
   </si>
   <si>
@@ -226,9 +163,6 @@
     <t>캑터스</t>
   </si>
   <si>
-    <t>앵커</t>
-  </si>
-  <si>
     <t>베이직파워</t>
   </si>
   <si>
@@ -241,60 +175,30 @@
     <t>퍼플유저</t>
   </si>
   <si>
-    <t>보브</t>
-  </si>
-  <si>
     <t>마운틴</t>
   </si>
   <si>
     <t>쓰리윈도</t>
   </si>
   <si>
-    <t>핸들</t>
-  </si>
-  <si>
     <t>뷰티풀페인트</t>
   </si>
   <si>
-    <t>로프</t>
-  </si>
-  <si>
     <t>차일디쉬</t>
   </si>
   <si>
     <t>이노쉐이드</t>
   </si>
   <si>
-    <t>룬</t>
-  </si>
-  <si>
-    <t>세컨</t>
-  </si>
-  <si>
-    <t>이솝</t>
-  </si>
-  <si>
     <t>스마일</t>
   </si>
   <si>
-    <t>푸름</t>
-  </si>
-  <si>
-    <t>헤라</t>
-  </si>
-  <si>
     <t>체어스</t>
   </si>
   <si>
     <t>플레임</t>
   </si>
   <si>
-    <t>리디</t>
-  </si>
-  <si>
-    <t>코멧</t>
-  </si>
-  <si>
     <t>시즈니</t>
   </si>
   <si>
@@ -304,9 +208,6 @@
     <t>브이아이</t>
   </si>
   <si>
-    <t>리빙</t>
-  </si>
-  <si>
     <t>핑거스</t>
   </si>
   <si>
@@ -328,12 +229,6 @@
     <t>플레이온</t>
   </si>
   <si>
-    <t>데톨</t>
-  </si>
-  <si>
-    <t>맨숀</t>
-  </si>
-  <si>
     <t>레나치오</t>
   </si>
   <si>
@@ -346,21 +241,9 @@
     <t>아이콘</t>
   </si>
   <si>
-    <t>신사</t>
-  </si>
-  <si>
-    <t>호크</t>
-  </si>
-  <si>
     <t>윈드밀</t>
   </si>
   <si>
-    <t>터틀</t>
-  </si>
-  <si>
-    <t>레이</t>
-  </si>
-  <si>
     <t>캐스트</t>
   </si>
   <si>
@@ -373,9 +256,6 @@
     <t>다이브</t>
   </si>
   <si>
-    <t>칙스</t>
-  </si>
-  <si>
     <t>케이퍼</t>
   </si>
   <si>
@@ -392,9 +272,6 @@
   </si>
   <si>
     <t>롱프라이데이</t>
-  </si>
-  <si>
-    <t>모토</t>
   </si>
   <si>
     <t>다인파트너스</t>
@@ -3578,13 +3455,160 @@
   </si>
   <si>
     <t>judge_xxxx@naver.com</t>
+  </si>
+  <si>
+    <t>누들링라</t>
+  </si>
+  <si>
+    <t>피어스토</t>
+  </si>
+  <si>
+    <t>어멘먼트</t>
+  </si>
+  <si>
+    <t>트라이오</t>
+  </si>
+  <si>
+    <t>후러스</t>
+  </si>
+  <si>
+    <t>컨티넨트</t>
+  </si>
+  <si>
+    <t>과호크</t>
+  </si>
+  <si>
+    <t>델린노</t>
+  </si>
+  <si>
+    <t>우레이</t>
+  </si>
+  <si>
+    <t>미스틱쿠</t>
+  </si>
+  <si>
+    <t>더차우</t>
+  </si>
+  <si>
+    <t>무치니</t>
+  </si>
+  <si>
+    <t>타이리</t>
+  </si>
+  <si>
+    <t>미니설</t>
+  </si>
+  <si>
+    <t>니트로젠</t>
+  </si>
+  <si>
+    <t>무브텐</t>
+  </si>
+  <si>
+    <t>렌슈가</t>
+  </si>
+  <si>
+    <t>투데톨</t>
+  </si>
+  <si>
+    <t>테터틀</t>
+  </si>
+  <si>
+    <t>옵시리언</t>
+  </si>
+  <si>
+    <t>앵커리</t>
+  </si>
+  <si>
+    <t>핸들루</t>
+  </si>
+  <si>
+    <t>디신사</t>
+  </si>
+  <si>
+    <t>에그넉</t>
+  </si>
+  <si>
+    <t>맨숀치</t>
+  </si>
+  <si>
+    <t>스포트라이트</t>
+  </si>
+  <si>
+    <t>시저닌</t>
+  </si>
+  <si>
+    <t>팬던트</t>
+  </si>
+  <si>
+    <t>로프티</t>
+  </si>
+  <si>
+    <t>미푸름</t>
+  </si>
+  <si>
+    <t>세컨스</t>
+  </si>
+  <si>
+    <t>코멧트</t>
+  </si>
+  <si>
+    <t>퓨린투</t>
+  </si>
+  <si>
+    <t>노아스</t>
+  </si>
+  <si>
+    <t>헤라우</t>
+  </si>
+  <si>
+    <t>리디음</t>
+  </si>
+  <si>
+    <t>프랙티셔너</t>
+  </si>
+  <si>
+    <t>리빙이</t>
+  </si>
+  <si>
+    <t>베아스</t>
+  </si>
+  <si>
+    <t>안칙스</t>
+  </si>
+  <si>
+    <t>타키텐</t>
+  </si>
+  <si>
+    <t>미모토</t>
+  </si>
+  <si>
+    <t>레귤레이션</t>
+  </si>
+  <si>
+    <t>이솝피</t>
+  </si>
+  <si>
+    <t>보브힘</t>
+  </si>
+  <si>
+    <t>씨네인</t>
+  </si>
+  <si>
+    <t>버드나</t>
+  </si>
+  <si>
+    <t>엑스비</t>
+  </si>
+  <si>
+    <t>제나루</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4002,23 +4026,23 @@
   <dimension ref="A1:K804"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="6" width="30.625" customWidth="1"/>
-    <col min="7" max="11" width="6.625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4043,24 +4067,24 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4068,24 +4092,24 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>465</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4093,24 +4117,24 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4118,24 +4142,24 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4143,24 +4167,24 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4168,24 +4192,24 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>467</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4193,24 +4217,24 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4218,24 +4242,24 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>24</v>
+        <v>468</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4243,24 +4267,24 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4268,24 +4292,24 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4293,24 +4317,24 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>469</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4318,24 +4342,24 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4343,24 +4367,24 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4368,24 +4392,24 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
+        <v>472</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4393,24 +4417,24 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4418,24 +4442,24 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4443,24 +4467,24 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4468,24 +4492,24 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4493,24 +4517,24 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>475</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4518,24 +4542,24 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="16">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4543,24 +4567,24 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4568,24 +4592,24 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4593,24 +4617,24 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>39</v>
+        <v>477</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4618,24 +4642,24 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4643,24 +4667,24 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="16">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4668,24 +4692,24 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4693,24 +4717,24 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4718,24 +4742,24 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4743,24 +4767,24 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4768,24 +4792,24 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="16">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4793,24 +4817,24 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="16">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4818,24 +4842,24 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="16">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4843,24 +4867,24 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="16">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4868,24 +4892,24 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="16">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4893,24 +4917,24 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="16">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4918,24 +4942,24 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="16">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>52</v>
+        <v>481</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4943,24 +4967,24 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="16">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4968,24 +4992,24 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="16">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4993,24 +5017,24 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="16">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -5018,24 +5042,24 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="16">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -5043,24 +5067,24 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>57</v>
+        <v>482</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -5068,24 +5092,24 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="16">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>483</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -5093,24 +5117,24 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -5118,24 +5142,24 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -5143,24 +5167,24 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -5168,24 +5192,24 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -5193,24 +5217,24 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>63</v>
+        <v>484</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -5218,24 +5242,24 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="16">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>64</v>
+        <v>485</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -5243,24 +5267,24 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="16">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5268,24 +5292,24 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5293,24 +5317,24 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="16">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -5318,24 +5342,24 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="16">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -5343,24 +5367,24 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="16">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -5368,24 +5392,24 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="16">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>70</v>
+        <v>488</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -5393,24 +5417,24 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="16">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>71</v>
+        <v>489</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -5418,24 +5442,24 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="16">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>72</v>
+        <v>490</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -5443,24 +5467,24 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="16">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -5468,24 +5492,24 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="16">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -5493,24 +5517,24 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="16">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -5518,24 +5542,24 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="16">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -5543,24 +5567,24 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="16">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -5568,24 +5592,24 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="16">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -5593,24 +5617,24 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="16">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -5618,24 +5642,24 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="16">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -5643,24 +5667,24 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -5668,24 +5692,24 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="16">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5693,24 +5717,24 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="16">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -5718,24 +5742,24 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5743,24 +5767,24 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="16">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -5768,24 +5792,24 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="16">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>86</v>
+        <v>496</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -5793,24 +5817,24 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>87</v>
+        <v>497</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -5818,24 +5842,24 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="16">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>88</v>
+        <v>498</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -5843,24 +5867,24 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="16">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5868,24 +5892,24 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5893,24 +5917,24 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="16">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>91</v>
+        <v>499</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -5918,24 +5942,24 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="16">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5943,24 +5967,24 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="16">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>93</v>
+        <v>501</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5968,24 +5992,24 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="16">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>94</v>
+        <v>502</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5993,24 +6017,24 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="16">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -6018,24 +6042,24 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="16">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6043,24 +6067,24 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="16">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6068,24 +6092,24 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="16">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6093,24 +6117,24 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="16">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6118,24 +6142,24 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6143,24 +6167,24 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="16">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>101</v>
+        <v>504</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6168,24 +6192,24 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>102</v>
+        <v>505</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -6193,24 +6217,24 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -6218,24 +6242,24 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="16">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>104</v>
+        <v>506</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -6243,24 +6267,24 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="16">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -6268,24 +6292,24 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -6293,24 +6317,24 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -6318,24 +6342,24 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="16">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -6343,24 +6367,24 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -6368,24 +6392,24 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -6393,24 +6417,24 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="16">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>111</v>
+        <v>508</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -6418,24 +6442,24 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="16">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>112</v>
+        <v>509</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6443,24 +6467,24 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -6468,24 +6492,24 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>114</v>
+        <v>510</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -6493,24 +6517,24 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11">
       <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -6518,24 +6542,24 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>116</v>
+        <v>511</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -6543,10 +6567,15 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="11"/>
+    <row r="102" spans="1:11">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="14"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -6554,10 +6583,15 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="11"/>
+    <row r="103" spans="1:11">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="14"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -6565,10 +6599,15 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="11"/>
+    <row r="104" spans="1:11">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="14"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -6576,10 +6615,15 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="11"/>
+    <row r="105" spans="1:11">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="14"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -6587,11 +6631,15 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="1"/>
+    <row r="106" spans="1:11">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="14"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -6599,11 +6647,15 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="1"/>
+    <row r="107" spans="1:11">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="14"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6611,11 +6663,15 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="1"/>
+    <row r="108" spans="1:11">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="14"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6623,11 +6679,15 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="1"/>
+    <row r="109" spans="1:11">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="14"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6635,7 +6695,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="11"/>
@@ -6647,7 +6707,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="11"/>
@@ -6659,7 +6719,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="11"/>
@@ -6671,7 +6731,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="11"/>
@@ -6683,7 +6743,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="11"/>
@@ -6695,7 +6755,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
       <c r="C115" s="11"/>
@@ -6707,7 +6767,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="11"/>
@@ -6719,7 +6779,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="11"/>
@@ -6731,7 +6791,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="11"/>
@@ -6743,7 +6803,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="11"/>
@@ -6755,7 +6815,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="11"/>
@@ -6767,7 +6827,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="11"/>
@@ -6779,7 +6839,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="11"/>
@@ -6791,7 +6851,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="11"/>
@@ -6803,7 +6863,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="11"/>
@@ -6815,7 +6875,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="11"/>
@@ -6827,7 +6887,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="11"/>
@@ -6839,7 +6899,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="11"/>
@@ -6851,7 +6911,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="11"/>
@@ -6863,7 +6923,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="11"/>
@@ -6875,7 +6935,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
@@ -6887,7 +6947,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="11"/>
@@ -6899,7 +6959,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="11"/>
@@ -6911,7 +6971,7 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="11"/>
@@ -6923,7 +6983,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11">
       <c r="A134" s="2"/>
       <c r="B134" s="1"/>
       <c r="C134" s="11"/>
@@ -6935,7 +6995,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11">
       <c r="A135" s="2"/>
       <c r="B135" s="1"/>
       <c r="C135" s="11"/>
@@ -6947,7 +7007,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11">
       <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="11"/>
@@ -6959,7 +7019,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="11"/>
@@ -6971,7 +7031,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11">
       <c r="A138" s="2"/>
       <c r="B138" s="1"/>
       <c r="C138" s="11"/>
@@ -6983,7 +7043,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
       <c r="C139" s="11"/>
@@ -6995,7 +7055,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11">
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="11"/>
@@ -7007,7 +7067,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="11"/>
@@ -7019,7 +7079,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11">
       <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="11"/>
@@ -7031,7 +7091,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="11"/>
@@ -7043,7 +7103,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="11"/>
@@ -7055,7 +7115,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="11"/>
@@ -7067,7 +7127,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="11"/>
@@ -7079,7 +7139,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="11"/>
@@ -7091,7 +7151,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="11"/>
@@ -7103,7 +7163,7 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="11"/>
@@ -7115,7 +7175,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="11"/>
@@ -7127,7 +7187,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="11"/>
@@ -7139,7 +7199,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="11"/>
@@ -7151,7 +7211,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="11"/>
@@ -7163,7 +7223,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="11"/>
@@ -7175,7 +7235,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="11"/>
@@ -7187,7 +7247,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="11"/>
@@ -7199,7 +7259,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="11"/>
@@ -7211,7 +7271,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="11"/>
@@ -7223,7 +7283,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="11"/>
@@ -7235,7 +7295,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="11"/>
@@ -7247,7 +7307,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" s="2"/>
       <c r="B161" s="1"/>
       <c r="C161" s="11"/>
@@ -7259,7 +7319,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="11"/>
@@ -7271,7 +7331,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="11"/>
@@ -7283,7 +7343,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="11"/>
@@ -7295,7 +7355,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="11"/>
@@ -7307,7 +7367,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" s="2"/>
       <c r="B166" s="1"/>
       <c r="C166" s="11"/>
@@ -7319,7 +7379,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="11"/>
@@ -7331,7 +7391,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="11"/>
@@ -7343,7 +7403,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="11"/>
@@ -7355,7 +7415,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="11"/>
@@ -7367,7 +7427,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" s="2"/>
       <c r="B171" s="1"/>
       <c r="C171" s="11"/>
@@ -7379,7 +7439,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="11"/>
@@ -7391,7 +7451,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="11"/>
@@ -7403,7 +7463,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="11"/>
@@ -7415,7 +7475,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="11"/>
@@ -7427,7 +7487,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" s="2"/>
       <c r="B176" s="1"/>
       <c r="C176" s="11"/>
@@ -7439,7 +7499,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="11"/>
@@ -7451,7 +7511,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="11"/>
@@ -7463,7 +7523,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="11"/>
@@ -7475,7 +7535,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="11"/>
@@ -7487,7 +7547,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
       <c r="C181" s="11"/>
@@ -7499,7 +7559,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="11"/>
@@ -7511,7 +7571,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11">
       <c r="A183" s="2"/>
       <c r="B183" s="1"/>
       <c r="C183" s="11"/>
@@ -7523,7 +7583,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="11"/>
@@ -7535,7 +7595,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="11"/>
@@ -7547,7 +7607,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11">
       <c r="A186" s="2"/>
       <c r="B186" s="1"/>
       <c r="C186" s="11"/>
@@ -7559,7 +7619,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
       <c r="C187" s="11"/>
@@ -7571,7 +7631,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="11"/>
@@ -7583,7 +7643,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="11"/>
@@ -7595,7 +7655,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="11"/>
@@ -7607,7 +7667,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
@@ -7619,7 +7679,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
@@ -7631,7 +7691,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
@@ -7643,7 +7703,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
@@ -7655,7 +7715,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" s="2"/>
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
@@ -7667,7 +7727,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" s="2"/>
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
@@ -7679,7 +7739,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
@@ -7691,7 +7751,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" s="2"/>
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
@@ -7703,7 +7763,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
@@ -7715,7 +7775,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" s="2"/>
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
@@ -7727,7 +7787,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" s="2"/>
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
@@ -7739,7 +7799,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11">
       <c r="A202" s="2"/>
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
@@ -7752,7 +7812,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11">
       <c r="A203" s="2"/>
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
@@ -7765,7 +7825,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11">
       <c r="A204" s="2"/>
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
@@ -7778,7 +7838,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11">
       <c r="A205" s="2"/>
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
@@ -7791,7 +7851,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11">
       <c r="A206" s="2"/>
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
@@ -7804,7 +7864,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11">
       <c r="A207" s="2"/>
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
@@ -7817,7 +7877,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11">
       <c r="A208" s="2"/>
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
@@ -7830,7 +7890,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
@@ -7843,7 +7903,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11">
       <c r="A210" s="2"/>
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
@@ -7856,7 +7916,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
@@ -7869,7 +7929,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11">
       <c r="A212" s="2"/>
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
@@ -7882,7 +7942,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
@@ -7895,7 +7955,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11">
       <c r="A214" s="2"/>
       <c r="B214" s="1"/>
       <c r="C214" s="11"/>
@@ -7908,7 +7968,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="11"/>
@@ -7921,7 +7981,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11">
       <c r="A216" s="2"/>
       <c r="B216" s="1"/>
       <c r="C216" s="11"/>
@@ -7934,7 +7994,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="11"/>
@@ -7947,7 +8007,7 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11">
       <c r="A218" s="2"/>
       <c r="B218" s="1"/>
       <c r="C218" s="11"/>
@@ -7960,7 +8020,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="11"/>
@@ -7973,7 +8033,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11">
       <c r="A220" s="2"/>
       <c r="B220" s="1"/>
       <c r="C220" s="11"/>
@@ -7986,7 +8046,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="11"/>
@@ -7999,7 +8059,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11">
       <c r="A222" s="2"/>
       <c r="B222" s="1"/>
       <c r="C222" s="11"/>
@@ -8012,7 +8072,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
       <c r="C223" s="11"/>
@@ -8025,7 +8085,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11">
       <c r="A224" s="2"/>
       <c r="B224" s="1"/>
       <c r="C224" s="11"/>
@@ -8038,7 +8098,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
       <c r="C225" s="11"/>
@@ -8051,7 +8111,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="11"/>
@@ -8064,7 +8124,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11">
       <c r="A227" s="2"/>
       <c r="B227" s="1"/>
       <c r="C227" s="11"/>
@@ -8077,7 +8137,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11">
       <c r="A228" s="2"/>
       <c r="B228" s="1"/>
       <c r="C228" s="11"/>
@@ -8090,7 +8150,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
       <c r="C229" s="11"/>
@@ -8103,7 +8163,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="11"/>
@@ -8116,7 +8176,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11">
       <c r="A231" s="2"/>
       <c r="B231" s="1"/>
       <c r="C231" s="11"/>
@@ -8129,7 +8189,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="11"/>
@@ -8142,7 +8202,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11">
       <c r="A233" s="2"/>
       <c r="B233" s="1"/>
       <c r="C233" s="11"/>
@@ -8155,7 +8215,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="11"/>
@@ -8168,7 +8228,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
       <c r="C235" s="11"/>
@@ -8181,7 +8241,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="11"/>
@@ -8194,7 +8254,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11">
       <c r="A237" s="2"/>
       <c r="B237" s="1"/>
       <c r="C237" s="11"/>
@@ -8207,7 +8267,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11">
       <c r="A238" s="2"/>
       <c r="B238" s="1"/>
       <c r="C238" s="11"/>
@@ -8220,7 +8280,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11">
       <c r="A239" s="2"/>
       <c r="B239" s="1"/>
       <c r="C239" s="11"/>
@@ -8233,7 +8293,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11">
       <c r="A240" s="2"/>
       <c r="B240" s="1"/>
       <c r="C240" s="11"/>
@@ -8246,7 +8306,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
       <c r="C241" s="11"/>
@@ -8259,7 +8319,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11">
       <c r="A242" s="2"/>
       <c r="B242" s="1"/>
       <c r="C242" s="11"/>
@@ -8272,7 +8332,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11">
       <c r="A243" s="2"/>
       <c r="B243" s="1"/>
       <c r="C243" s="11"/>
@@ -8285,7 +8345,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11">
       <c r="A244" s="2"/>
       <c r="B244" s="1"/>
       <c r="C244" s="11"/>
@@ -8298,7 +8358,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11">
       <c r="A245" s="2"/>
       <c r="B245" s="1"/>
       <c r="C245" s="11"/>
@@ -8311,7 +8371,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11">
       <c r="A246" s="2"/>
       <c r="B246" s="1"/>
       <c r="C246" s="11"/>
@@ -8324,7 +8384,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11">
       <c r="A247" s="2"/>
       <c r="B247" s="1"/>
       <c r="C247" s="11"/>
@@ -8337,7 +8397,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11">
       <c r="A248" s="2"/>
       <c r="B248" s="1"/>
       <c r="C248" s="11"/>
@@ -8350,7 +8410,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11">
       <c r="A249" s="2"/>
       <c r="B249" s="1"/>
       <c r="C249" s="11"/>
@@ -8363,7 +8423,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11">
       <c r="A250" s="2"/>
       <c r="B250" s="1"/>
       <c r="C250" s="11"/>
@@ -8376,7 +8436,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11">
       <c r="A251" s="2"/>
       <c r="B251" s="1"/>
       <c r="C251" s="11"/>
@@ -8389,7 +8449,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11">
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
       <c r="C252" s="11"/>
@@ -8402,7 +8462,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11">
       <c r="A253" s="2"/>
       <c r="B253" s="1"/>
       <c r="C253" s="11"/>
@@ -8415,7 +8475,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11">
       <c r="A254" s="2"/>
       <c r="B254" s="1"/>
       <c r="C254" s="11"/>
@@ -8428,7 +8488,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11">
       <c r="A255" s="2"/>
       <c r="B255" s="1"/>
       <c r="C255" s="11"/>
@@ -8441,7 +8501,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11">
       <c r="A256" s="2"/>
       <c r="B256" s="1"/>
       <c r="C256" s="11"/>
@@ -8454,7 +8514,7 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11">
       <c r="A257" s="2"/>
       <c r="B257" s="1"/>
       <c r="C257" s="11"/>
@@ -8467,7 +8527,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11">
       <c r="A258" s="2"/>
       <c r="B258" s="1"/>
       <c r="C258" s="11"/>
@@ -8480,7 +8540,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11">
       <c r="A259" s="2"/>
       <c r="B259" s="1"/>
       <c r="C259" s="11"/>
@@ -8493,7 +8553,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11">
       <c r="A260" s="2"/>
       <c r="B260" s="1"/>
       <c r="C260" s="11"/>
@@ -8506,7 +8566,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11">
       <c r="A261" s="2"/>
       <c r="B261" s="1"/>
       <c r="C261" s="11"/>
@@ -8519,7 +8579,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11">
       <c r="A262" s="2"/>
       <c r="B262" s="1"/>
       <c r="C262" s="11"/>
@@ -8532,7 +8592,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11">
       <c r="A263" s="2"/>
       <c r="B263" s="1"/>
       <c r="C263" s="11"/>
@@ -8545,7 +8605,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11">
       <c r="A264" s="2"/>
       <c r="B264" s="1"/>
       <c r="C264" s="11"/>
@@ -8558,7 +8618,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11">
       <c r="A265" s="2"/>
       <c r="B265" s="1"/>
       <c r="C265" s="11"/>
@@ -8571,7 +8631,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11">
       <c r="A266" s="2"/>
       <c r="B266" s="1"/>
       <c r="C266" s="11"/>
@@ -8584,7 +8644,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11">
       <c r="A267" s="2"/>
       <c r="B267" s="1"/>
       <c r="C267" s="11"/>
@@ -8597,7 +8657,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11">
       <c r="A268" s="2"/>
       <c r="B268" s="1"/>
       <c r="C268" s="11"/>
@@ -8610,7 +8670,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11">
       <c r="A269" s="2"/>
       <c r="B269" s="1"/>
       <c r="C269" s="11"/>
@@ -8623,7 +8683,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11">
       <c r="A270" s="2"/>
       <c r="B270" s="1"/>
       <c r="C270" s="11"/>
@@ -8636,7 +8696,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11">
       <c r="A271" s="2"/>
       <c r="B271" s="1"/>
       <c r="C271" s="11"/>
@@ -8649,7 +8709,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11">
       <c r="A272" s="2"/>
       <c r="B272" s="1"/>
       <c r="C272" s="11"/>
@@ -8662,7 +8722,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11">
       <c r="A273" s="2"/>
       <c r="B273" s="1"/>
       <c r="C273" s="11"/>
@@ -8675,7 +8735,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11">
       <c r="A274" s="2"/>
       <c r="B274" s="1"/>
       <c r="C274" s="11"/>
@@ -8688,7 +8748,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11">
       <c r="A275" s="2"/>
       <c r="B275" s="1"/>
       <c r="C275" s="11"/>
@@ -8701,7 +8761,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11">
       <c r="A276" s="2"/>
       <c r="B276" s="1"/>
       <c r="C276" s="11"/>
@@ -8714,7 +8774,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11">
       <c r="A277" s="2"/>
       <c r="B277" s="1"/>
       <c r="C277" s="11"/>
@@ -8727,7 +8787,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11">
       <c r="A278" s="2"/>
       <c r="B278" s="1"/>
       <c r="C278" s="11"/>
@@ -8740,7 +8800,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11">
       <c r="A279" s="2"/>
       <c r="B279" s="1"/>
       <c r="C279" s="11"/>
@@ -8753,7 +8813,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11">
       <c r="A280" s="2"/>
       <c r="B280" s="1"/>
       <c r="C280" s="11"/>
@@ -8766,7 +8826,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11">
       <c r="A281" s="2"/>
       <c r="B281" s="1"/>
       <c r="C281" s="11"/>
@@ -8779,7 +8839,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11">
       <c r="A282" s="2"/>
       <c r="B282" s="1"/>
       <c r="C282" s="11"/>
@@ -8792,7 +8852,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11">
       <c r="A283" s="2"/>
       <c r="B283" s="1"/>
       <c r="C283" s="11"/>
@@ -8805,7 +8865,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11">
       <c r="A284" s="2"/>
       <c r="B284" s="1"/>
       <c r="C284" s="11"/>
@@ -8818,7 +8878,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11">
       <c r="A285" s="2"/>
       <c r="B285" s="1"/>
       <c r="C285" s="11"/>
@@ -8831,7 +8891,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11">
       <c r="A286" s="2"/>
       <c r="B286" s="1"/>
       <c r="C286" s="11"/>
@@ -8844,7 +8904,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11">
       <c r="A287" s="2"/>
       <c r="B287" s="1"/>
       <c r="C287" s="11"/>
@@ -8857,7 +8917,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11">
       <c r="A288" s="2"/>
       <c r="B288" s="1"/>
       <c r="C288" s="11"/>
@@ -8870,7 +8930,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11">
       <c r="A289" s="2"/>
       <c r="B289" s="1"/>
       <c r="C289" s="11"/>
@@ -8883,7 +8943,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11">
       <c r="A290" s="2"/>
       <c r="B290" s="1"/>
       <c r="C290" s="11"/>
@@ -8896,7 +8956,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11">
       <c r="A291" s="2"/>
       <c r="B291" s="1"/>
       <c r="C291" s="11"/>
@@ -8909,7 +8969,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11">
       <c r="A292" s="2"/>
       <c r="B292" s="1"/>
       <c r="C292" s="11"/>
@@ -8922,7 +8982,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11">
       <c r="A293" s="2"/>
       <c r="B293" s="1"/>
       <c r="C293" s="11"/>
@@ -8935,7 +8995,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11">
       <c r="A294" s="2"/>
       <c r="B294" s="1"/>
       <c r="C294" s="11"/>
@@ -8948,7 +9008,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11">
       <c r="A295" s="2"/>
       <c r="B295" s="1"/>
       <c r="C295" s="11"/>
@@ -8961,7 +9021,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11">
       <c r="A296" s="2"/>
       <c r="B296" s="1"/>
       <c r="C296" s="11"/>
@@ -8974,7 +9034,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11">
       <c r="A297" s="2"/>
       <c r="B297" s="1"/>
       <c r="C297" s="11"/>
@@ -8987,7 +9047,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11">
       <c r="A298" s="2"/>
       <c r="B298" s="1"/>
       <c r="C298" s="11"/>
@@ -9000,7 +9060,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11">
       <c r="A299" s="2"/>
       <c r="B299" s="1"/>
       <c r="C299" s="11"/>
@@ -9013,7 +9073,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11">
       <c r="A300" s="2"/>
       <c r="B300" s="1"/>
       <c r="C300" s="11"/>
@@ -9026,7 +9086,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11">
       <c r="A301" s="2"/>
       <c r="B301" s="1"/>
       <c r="C301" s="11"/>
@@ -9039,7 +9099,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11">
       <c r="A302" s="2"/>
       <c r="B302" s="1"/>
       <c r="C302" s="11"/>
@@ -9052,7 +9112,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11">
       <c r="A303" s="2"/>
       <c r="B303" s="1"/>
       <c r="C303" s="11"/>
@@ -9065,7 +9125,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11">
       <c r="A304" s="2"/>
       <c r="B304" s="1"/>
       <c r="C304" s="11"/>
@@ -9078,7 +9138,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11">
       <c r="A305" s="2"/>
       <c r="B305" s="1"/>
       <c r="C305" s="11"/>
@@ -9091,7 +9151,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11">
       <c r="A306" s="2"/>
       <c r="B306" s="1"/>
       <c r="C306" s="11"/>
@@ -9104,7 +9164,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11">
       <c r="A307" s="2"/>
       <c r="B307" s="1"/>
       <c r="C307" s="11"/>
@@ -9117,7 +9177,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11">
       <c r="A308" s="2"/>
       <c r="B308" s="1"/>
       <c r="C308" s="11"/>
@@ -9130,7 +9190,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11">
       <c r="A309" s="2"/>
       <c r="B309" s="1"/>
       <c r="C309" s="11"/>
@@ -9143,7 +9203,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11">
       <c r="A310" s="2"/>
       <c r="B310" s="1"/>
       <c r="C310" s="11"/>
@@ -9156,7 +9216,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11">
       <c r="A311" s="2"/>
       <c r="B311" s="1"/>
       <c r="C311" s="11"/>
@@ -9169,7 +9229,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11">
       <c r="A312" s="2"/>
       <c r="B312" s="1"/>
       <c r="C312" s="11"/>
@@ -9182,7 +9242,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11">
       <c r="A313" s="2"/>
       <c r="B313" s="1"/>
       <c r="C313" s="11"/>
@@ -9195,7 +9255,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11">
       <c r="A314" s="2"/>
       <c r="B314" s="1"/>
       <c r="C314" s="11"/>
@@ -9208,7 +9268,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11">
       <c r="A315" s="2"/>
       <c r="B315" s="1"/>
       <c r="C315" s="11"/>
@@ -9221,7 +9281,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11">
       <c r="A316" s="2"/>
       <c r="B316" s="1"/>
       <c r="C316" s="11"/>
@@ -9234,7 +9294,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11">
       <c r="A317" s="2"/>
       <c r="B317" s="1"/>
       <c r="C317" s="11"/>
@@ -9247,7 +9307,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11">
       <c r="A318" s="2"/>
       <c r="B318" s="1"/>
       <c r="C318" s="11"/>
@@ -9260,7 +9320,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11">
       <c r="A319" s="2"/>
       <c r="B319" s="1"/>
       <c r="C319" s="11"/>
@@ -9273,7 +9333,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11">
       <c r="A320" s="2"/>
       <c r="B320" s="1"/>
       <c r="C320" s="11"/>
@@ -9286,7 +9346,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11">
       <c r="A321" s="2"/>
       <c r="B321" s="1"/>
       <c r="C321" s="11"/>
@@ -9299,7 +9359,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11">
       <c r="A322" s="2"/>
       <c r="B322" s="1"/>
       <c r="C322" s="11"/>
@@ -9312,7 +9372,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11">
       <c r="A323" s="2"/>
       <c r="B323" s="1"/>
       <c r="C323" s="11"/>
@@ -9325,7 +9385,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11">
       <c r="A324" s="2"/>
       <c r="B324" s="1"/>
       <c r="C324" s="11"/>
@@ -9338,7 +9398,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11">
       <c r="A325" s="2"/>
       <c r="B325" s="1"/>
       <c r="C325" s="11"/>
@@ -9351,7 +9411,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11">
       <c r="A326" s="2"/>
       <c r="B326" s="1"/>
       <c r="C326" s="11"/>
@@ -9364,7 +9424,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11">
       <c r="A327" s="2"/>
       <c r="B327" s="1"/>
       <c r="C327" s="11"/>
@@ -9377,7 +9437,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11">
       <c r="A328" s="2"/>
       <c r="B328" s="1"/>
       <c r="C328" s="11"/>
@@ -9390,7 +9450,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11">
       <c r="A329" s="2"/>
       <c r="B329" s="1"/>
       <c r="C329" s="11"/>
@@ -9403,7 +9463,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11">
       <c r="A330" s="2"/>
       <c r="B330" s="1"/>
       <c r="C330" s="11"/>
@@ -9416,7 +9476,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11">
       <c r="A331" s="2"/>
       <c r="B331" s="1"/>
       <c r="C331" s="11"/>
@@ -9429,7 +9489,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11">
       <c r="A332" s="2"/>
       <c r="B332" s="1"/>
       <c r="C332" s="11"/>
@@ -9442,7 +9502,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11">
       <c r="A333" s="2"/>
       <c r="B333" s="1"/>
       <c r="C333" s="11"/>
@@ -9455,7 +9515,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11">
       <c r="A334" s="2"/>
       <c r="B334" s="1"/>
       <c r="C334" s="11"/>
@@ -9468,7 +9528,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11">
       <c r="A335" s="2"/>
       <c r="B335" s="1"/>
       <c r="C335" s="11"/>
@@ -9481,7 +9541,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11">
       <c r="A336" s="2"/>
       <c r="B336" s="1"/>
       <c r="C336" s="11"/>
@@ -9494,7 +9554,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11">
       <c r="A337" s="2"/>
       <c r="B337" s="1"/>
       <c r="C337" s="11"/>
@@ -9507,7 +9567,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11">
       <c r="A338" s="2"/>
       <c r="B338" s="1"/>
       <c r="C338" s="11"/>
@@ -9520,7 +9580,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11">
       <c r="A339" s="2"/>
       <c r="B339" s="1"/>
       <c r="C339" s="11"/>
@@ -9533,7 +9593,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11">
       <c r="A340" s="2"/>
       <c r="B340" s="1"/>
       <c r="C340" s="11"/>
@@ -9546,7 +9606,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11">
       <c r="A341" s="2"/>
       <c r="B341" s="1"/>
       <c r="C341" s="11"/>
@@ -9559,7 +9619,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11">
       <c r="A342" s="2"/>
       <c r="B342" s="1"/>
       <c r="C342" s="11"/>
@@ -9572,7 +9632,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11">
       <c r="A343" s="2"/>
       <c r="B343" s="1"/>
       <c r="C343" s="11"/>
@@ -9585,7 +9645,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11">
       <c r="A344" s="2"/>
       <c r="B344" s="1"/>
       <c r="C344" s="11"/>
@@ -9598,7 +9658,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11">
       <c r="A345" s="2"/>
       <c r="B345" s="1"/>
       <c r="C345" s="11"/>
@@ -9611,7 +9671,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11">
       <c r="A346" s="2"/>
       <c r="B346" s="1"/>
       <c r="C346" s="11"/>
@@ -9624,7 +9684,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11">
       <c r="A347" s="2"/>
       <c r="B347" s="1"/>
       <c r="C347" s="11"/>
@@ -9637,7 +9697,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11">
       <c r="A348" s="2"/>
       <c r="B348" s="1"/>
       <c r="C348" s="11"/>
@@ -9650,7 +9710,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11">
       <c r="A349" s="2"/>
       <c r="B349" s="1"/>
       <c r="C349" s="11"/>
@@ -9663,7 +9723,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11">
       <c r="A350" s="2"/>
       <c r="B350" s="1"/>
       <c r="C350" s="11"/>
@@ -9676,7 +9736,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11">
       <c r="A351" s="2"/>
       <c r="B351" s="1"/>
       <c r="C351" s="11"/>
@@ -9689,7 +9749,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11">
       <c r="A352" s="2"/>
       <c r="B352" s="1"/>
       <c r="C352" s="11"/>
@@ -9702,7 +9762,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11">
       <c r="A353" s="2"/>
       <c r="B353" s="1"/>
       <c r="C353" s="11"/>
@@ -9715,7 +9775,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11">
       <c r="A354" s="2"/>
       <c r="B354" s="1"/>
       <c r="C354" s="11"/>
@@ -9728,7 +9788,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11">
       <c r="A355" s="2"/>
       <c r="B355" s="1"/>
       <c r="C355" s="11"/>
@@ -9741,7 +9801,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11">
       <c r="A356" s="2"/>
       <c r="B356" s="1"/>
       <c r="C356" s="11"/>
@@ -9754,7 +9814,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11">
       <c r="A357" s="2"/>
       <c r="B357" s="1"/>
       <c r="C357" s="11"/>
@@ -9767,7 +9827,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11">
       <c r="A358" s="2"/>
       <c r="B358" s="1"/>
       <c r="C358" s="11"/>
@@ -9780,7 +9840,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11">
       <c r="A359" s="2"/>
       <c r="B359" s="1"/>
       <c r="C359" s="11"/>
@@ -9793,7 +9853,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11">
       <c r="A360" s="2"/>
       <c r="B360" s="1"/>
       <c r="C360" s="11"/>
@@ -9806,7 +9866,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11">
       <c r="A361" s="2"/>
       <c r="B361" s="1"/>
       <c r="C361" s="11"/>
@@ -9819,7 +9879,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11">
       <c r="A362" s="2"/>
       <c r="B362" s="1"/>
       <c r="C362" s="11"/>
@@ -9832,7 +9892,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11">
       <c r="A363" s="2"/>
       <c r="B363" s="1"/>
       <c r="C363" s="11"/>
@@ -9845,7 +9905,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11">
       <c r="A364" s="2"/>
       <c r="B364" s="1"/>
       <c r="C364" s="11"/>
@@ -9858,7 +9918,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11">
       <c r="A365" s="2"/>
       <c r="B365" s="1"/>
       <c r="C365" s="11"/>
@@ -9871,7 +9931,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11">
       <c r="A366" s="2"/>
       <c r="B366" s="1"/>
       <c r="C366" s="11"/>
@@ -9884,7 +9944,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11">
       <c r="A367" s="2"/>
       <c r="B367" s="1"/>
       <c r="C367" s="11"/>
@@ -9897,7 +9957,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11">
       <c r="A368" s="2"/>
       <c r="B368" s="1"/>
       <c r="C368" s="11"/>
@@ -9910,7 +9970,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11">
       <c r="A369" s="2"/>
       <c r="B369" s="1"/>
       <c r="C369" s="11"/>
@@ -9923,7 +9983,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11">
       <c r="A370" s="2"/>
       <c r="B370" s="1"/>
       <c r="C370" s="11"/>
@@ -9936,7 +9996,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11">
       <c r="A371" s="2"/>
       <c r="B371" s="1"/>
       <c r="C371" s="11"/>
@@ -9949,7 +10009,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11">
       <c r="A372" s="2"/>
       <c r="B372" s="1"/>
       <c r="C372" s="11"/>
@@ -9962,7 +10022,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11">
       <c r="A373" s="2"/>
       <c r="B373" s="1"/>
       <c r="C373" s="11"/>
@@ -9975,7 +10035,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11">
       <c r="A374" s="2"/>
       <c r="B374" s="1"/>
       <c r="C374" s="11"/>
@@ -9988,7 +10048,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11">
       <c r="A375" s="2"/>
       <c r="B375" s="1"/>
       <c r="C375" s="11"/>
@@ -10001,7 +10061,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11">
       <c r="A376" s="2"/>
       <c r="B376" s="1"/>
       <c r="C376" s="11"/>
@@ -10014,7 +10074,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11">
       <c r="A377" s="2"/>
       <c r="B377" s="1"/>
       <c r="C377" s="11"/>
@@ -10027,7 +10087,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11">
       <c r="A378" s="2"/>
       <c r="B378" s="1"/>
       <c r="C378" s="11"/>
@@ -10040,7 +10100,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11">
       <c r="A379" s="2"/>
       <c r="B379" s="1"/>
       <c r="C379" s="11"/>
@@ -10053,7 +10113,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11">
       <c r="A380" s="2"/>
       <c r="B380" s="1"/>
       <c r="C380" s="11"/>
@@ -10066,7 +10126,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11">
       <c r="A381" s="2"/>
       <c r="B381" s="1"/>
       <c r="C381" s="11"/>
@@ -10079,7 +10139,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11">
       <c r="A382" s="2"/>
       <c r="B382" s="1"/>
       <c r="C382" s="11"/>
@@ -10092,7 +10152,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11">
       <c r="A383" s="2"/>
       <c r="B383" s="1"/>
       <c r="C383" s="11"/>
@@ -10105,7 +10165,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11">
       <c r="A384" s="2"/>
       <c r="B384" s="1"/>
       <c r="C384" s="11"/>
@@ -10118,7 +10178,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11">
       <c r="A385" s="2"/>
       <c r="B385" s="1"/>
       <c r="C385" s="11"/>
@@ -10131,7 +10191,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11">
       <c r="A386" s="2"/>
       <c r="B386" s="1"/>
       <c r="C386" s="11"/>
@@ -10144,7 +10204,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11">
       <c r="A387" s="2"/>
       <c r="B387" s="1"/>
       <c r="C387" s="11"/>
@@ -10157,7 +10217,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11">
       <c r="A388" s="2"/>
       <c r="B388" s="1"/>
       <c r="C388" s="11"/>
@@ -10170,7 +10230,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11">
       <c r="A389" s="2"/>
       <c r="B389" s="1"/>
       <c r="C389" s="11"/>
@@ -10183,7 +10243,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11">
       <c r="A390" s="2"/>
       <c r="B390" s="1"/>
       <c r="C390" s="11"/>
@@ -10196,7 +10256,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11">
       <c r="A391" s="2"/>
       <c r="B391" s="1"/>
       <c r="C391" s="11"/>
@@ -10209,7 +10269,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11">
       <c r="A392" s="2"/>
       <c r="B392" s="1"/>
       <c r="C392" s="11"/>
@@ -10222,7 +10282,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11">
       <c r="A393" s="2"/>
       <c r="B393" s="1"/>
       <c r="C393" s="11"/>
@@ -10235,7 +10295,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11">
       <c r="A394" s="2"/>
       <c r="B394" s="1"/>
       <c r="C394" s="11"/>
@@ -10248,7 +10308,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11">
       <c r="A395" s="2"/>
       <c r="B395" s="1"/>
       <c r="C395" s="11"/>
@@ -10261,7 +10321,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11">
       <c r="A396" s="2"/>
       <c r="B396" s="1"/>
       <c r="C396" s="11"/>
@@ -10274,7 +10334,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11">
       <c r="A397" s="2"/>
       <c r="B397" s="1"/>
       <c r="C397" s="11"/>
@@ -10287,7 +10347,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11">
       <c r="A398" s="2"/>
       <c r="B398" s="1"/>
       <c r="C398" s="11"/>
@@ -10300,7 +10360,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11">
       <c r="A399" s="2"/>
       <c r="B399" s="1"/>
       <c r="C399" s="11"/>
@@ -10313,7 +10373,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11">
       <c r="A400" s="2"/>
       <c r="B400" s="1"/>
       <c r="C400" s="11"/>
@@ -10326,7 +10386,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11">
       <c r="A401" s="2"/>
       <c r="B401" s="1"/>
       <c r="C401" s="11"/>
@@ -10339,7 +10399,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11">
       <c r="A402" s="2"/>
       <c r="B402" s="1"/>
       <c r="C402" s="11"/>
@@ -10352,7 +10412,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11">
       <c r="A403" s="2"/>
       <c r="B403" s="1"/>
       <c r="C403" s="11"/>
@@ -10365,7 +10425,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11">
       <c r="A404" s="2"/>
       <c r="B404" s="1"/>
       <c r="C404" s="11"/>
@@ -10378,7 +10438,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11">
       <c r="A405" s="2"/>
       <c r="B405" s="1"/>
       <c r="C405" s="11"/>
@@ -10391,7 +10451,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11">
       <c r="A406" s="2"/>
       <c r="B406" s="1"/>
       <c r="C406" s="11"/>
@@ -10404,7 +10464,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11">
       <c r="A407" s="2"/>
       <c r="B407" s="1"/>
       <c r="C407" s="11"/>
@@ -10417,7 +10477,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11">
       <c r="A408" s="2"/>
       <c r="B408" s="1"/>
       <c r="C408" s="11"/>
@@ -10430,7 +10490,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11">
       <c r="A409" s="2"/>
       <c r="B409" s="1"/>
       <c r="C409" s="11"/>
@@ -10443,7 +10503,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11">
       <c r="A410" s="2"/>
       <c r="B410" s="1"/>
       <c r="C410" s="11"/>
@@ -10456,7 +10516,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11">
       <c r="A411" s="2"/>
       <c r="B411" s="1"/>
       <c r="C411" s="11"/>
@@ -10469,7 +10529,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11">
       <c r="A412" s="2"/>
       <c r="B412" s="1"/>
       <c r="C412" s="11"/>
@@ -10482,7 +10542,7 @@
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11">
       <c r="A413" s="2"/>
       <c r="B413" s="1"/>
       <c r="C413" s="11"/>
@@ -10495,7 +10555,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11">
       <c r="A414" s="2"/>
       <c r="B414" s="1"/>
       <c r="C414" s="11"/>
@@ -10508,7 +10568,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11">
       <c r="A415" s="2"/>
       <c r="B415" s="1"/>
       <c r="C415" s="11"/>
@@ -10521,7 +10581,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11">
       <c r="A416" s="2"/>
       <c r="B416" s="1"/>
       <c r="C416" s="11"/>
@@ -10534,7 +10594,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11">
       <c r="A417" s="2"/>
       <c r="B417" s="1"/>
       <c r="C417" s="11"/>
@@ -10547,7 +10607,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11">
       <c r="A418" s="2"/>
       <c r="B418" s="1"/>
       <c r="C418" s="11"/>
@@ -10560,7 +10620,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11">
       <c r="A419" s="2"/>
       <c r="B419" s="1"/>
       <c r="C419" s="11"/>
@@ -10573,7 +10633,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11">
       <c r="A420" s="2"/>
       <c r="B420" s="1"/>
       <c r="C420" s="11"/>
@@ -10586,7 +10646,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11">
       <c r="A421" s="2"/>
       <c r="B421" s="1"/>
       <c r="C421" s="11"/>
@@ -10599,7 +10659,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11">
       <c r="A422" s="2"/>
       <c r="B422" s="1"/>
       <c r="C422" s="11"/>
@@ -10612,7 +10672,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11">
       <c r="A423" s="2"/>
       <c r="B423" s="1"/>
       <c r="C423" s="11"/>
@@ -10625,7 +10685,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11">
       <c r="A424" s="2"/>
       <c r="B424" s="1"/>
       <c r="C424" s="11"/>
@@ -10638,7 +10698,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11">
       <c r="A425" s="2"/>
       <c r="B425" s="1"/>
       <c r="C425" s="11"/>
@@ -10651,7 +10711,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11">
       <c r="A426" s="2"/>
       <c r="B426" s="1"/>
       <c r="C426" s="11"/>
@@ -10664,7 +10724,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11">
       <c r="A427" s="2"/>
       <c r="B427" s="1"/>
       <c r="C427" s="11"/>
@@ -10677,7 +10737,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11">
       <c r="A428" s="2"/>
       <c r="B428" s="1"/>
       <c r="C428" s="11"/>
@@ -10690,7 +10750,7 @@
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11">
       <c r="A429" s="2"/>
       <c r="B429" s="1"/>
       <c r="C429" s="11"/>
@@ -10703,7 +10763,7 @@
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11">
       <c r="A430" s="2"/>
       <c r="B430" s="1"/>
       <c r="C430" s="11"/>
@@ -10716,7 +10776,7 @@
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11">
       <c r="A431" s="2"/>
       <c r="B431" s="1"/>
       <c r="C431" s="11"/>
@@ -10729,7 +10789,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11">
       <c r="A432" s="2"/>
       <c r="B432" s="1"/>
       <c r="C432" s="11"/>
@@ -10742,7 +10802,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11">
       <c r="A433" s="2"/>
       <c r="B433" s="1"/>
       <c r="C433" s="11"/>
@@ -10755,7 +10815,7 @@
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11">
       <c r="A434" s="2"/>
       <c r="B434" s="1"/>
       <c r="C434" s="11"/>
@@ -10768,7 +10828,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11">
       <c r="A435" s="2"/>
       <c r="B435" s="1"/>
       <c r="C435" s="11"/>
@@ -10781,7 +10841,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11">
       <c r="A436" s="2"/>
       <c r="B436" s="1"/>
       <c r="C436" s="11"/>
@@ -10794,7 +10854,7 @@
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11">
       <c r="A437" s="2"/>
       <c r="B437" s="1"/>
       <c r="C437" s="11"/>
@@ -10807,7 +10867,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11">
       <c r="A438" s="2"/>
       <c r="B438" s="1"/>
       <c r="C438" s="11"/>
@@ -10820,7 +10880,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11">
       <c r="A439" s="2"/>
       <c r="B439" s="1"/>
       <c r="C439" s="11"/>
@@ -10833,7 +10893,7 @@
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11">
       <c r="A440" s="2"/>
       <c r="B440" s="1"/>
       <c r="C440" s="11"/>
@@ -10846,7 +10906,7 @@
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11">
       <c r="A441" s="2"/>
       <c r="B441" s="1"/>
       <c r="C441" s="11"/>
@@ -10859,7 +10919,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11">
       <c r="A442" s="2"/>
       <c r="B442" s="1"/>
       <c r="C442" s="11"/>
@@ -10872,7 +10932,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11">
       <c r="A443" s="2"/>
       <c r="B443" s="1"/>
       <c r="C443" s="11"/>
@@ -10885,7 +10945,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11">
       <c r="A444" s="2"/>
       <c r="B444" s="1"/>
       <c r="C444" s="11"/>
@@ -10898,7 +10958,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11">
       <c r="A445" s="2"/>
       <c r="B445" s="1"/>
       <c r="C445" s="11"/>
@@ -10911,7 +10971,7 @@
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11">
       <c r="A446" s="2"/>
       <c r="B446" s="1"/>
       <c r="C446" s="11"/>
@@ -10924,7 +10984,7 @@
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11">
       <c r="A447" s="2"/>
       <c r="B447" s="1"/>
       <c r="C447" s="11"/>
@@ -10937,7 +10997,7 @@
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11">
       <c r="A448" s="2"/>
       <c r="B448" s="1"/>
       <c r="C448" s="11"/>
@@ -10950,7 +11010,7 @@
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11">
       <c r="A449" s="2"/>
       <c r="B449" s="1"/>
       <c r="C449" s="11"/>
@@ -10963,7 +11023,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11">
       <c r="A450" s="2"/>
       <c r="B450" s="1"/>
       <c r="C450" s="11"/>
@@ -10976,7 +11036,7 @@
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11">
       <c r="A451" s="2"/>
       <c r="B451" s="1"/>
       <c r="C451" s="11"/>
@@ -10989,7 +11049,7 @@
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11">
       <c r="A452" s="2"/>
       <c r="B452" s="1"/>
       <c r="C452" s="11"/>
@@ -11002,7 +11062,7 @@
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11">
       <c r="A453" s="2"/>
       <c r="B453" s="1"/>
       <c r="C453" s="11"/>
@@ -11015,7 +11075,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11">
       <c r="A454" s="2"/>
       <c r="B454" s="1"/>
       <c r="C454" s="11"/>
@@ -11028,7 +11088,7 @@
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11">
       <c r="A455" s="2"/>
       <c r="B455" s="1"/>
       <c r="C455" s="11"/>
@@ -11041,7 +11101,7 @@
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11">
       <c r="A456" s="2"/>
       <c r="B456" s="1"/>
       <c r="C456" s="11"/>
@@ -11054,7 +11114,7 @@
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11">
       <c r="A457" s="2"/>
       <c r="B457" s="1"/>
       <c r="C457" s="11"/>
@@ -11067,7 +11127,7 @@
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11">
       <c r="A458" s="2"/>
       <c r="B458" s="1"/>
       <c r="C458" s="11"/>
@@ -11080,7 +11140,7 @@
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11">
       <c r="A459" s="2"/>
       <c r="B459" s="1"/>
       <c r="C459" s="11"/>
@@ -11093,7 +11153,7 @@
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11">
       <c r="A460" s="2"/>
       <c r="B460" s="1"/>
       <c r="C460" s="11"/>
@@ -11106,7 +11166,7 @@
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11">
       <c r="A461" s="2"/>
       <c r="B461" s="1"/>
       <c r="C461" s="11"/>
@@ -11119,7 +11179,7 @@
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11">
       <c r="A462" s="2"/>
       <c r="B462" s="1"/>
       <c r="C462" s="11"/>
@@ -11132,7 +11192,7 @@
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11">
       <c r="A463" s="2"/>
       <c r="B463" s="1"/>
       <c r="C463" s="11"/>
@@ -11145,7 +11205,7 @@
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11">
       <c r="A464" s="2"/>
       <c r="B464" s="1"/>
       <c r="C464" s="11"/>
@@ -11158,7 +11218,7 @@
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11">
       <c r="A465" s="2"/>
       <c r="B465" s="1"/>
       <c r="C465" s="11"/>
@@ -11171,7 +11231,7 @@
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11">
       <c r="A466" s="2"/>
       <c r="B466" s="1"/>
       <c r="C466" s="11"/>
@@ -11184,7 +11244,7 @@
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11">
       <c r="A467" s="2"/>
       <c r="B467" s="1"/>
       <c r="C467" s="11"/>
@@ -11197,7 +11257,7 @@
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11">
       <c r="A468" s="2"/>
       <c r="B468" s="1"/>
       <c r="C468" s="11"/>
@@ -11210,7 +11270,7 @@
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11">
       <c r="A469" s="2"/>
       <c r="B469" s="1"/>
       <c r="C469" s="11"/>
@@ -11223,7 +11283,7 @@
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11">
       <c r="A470" s="2"/>
       <c r="B470" s="1"/>
       <c r="C470" s="11"/>
@@ -11236,7 +11296,7 @@
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11">
       <c r="A471" s="2"/>
       <c r="B471" s="1"/>
       <c r="C471" s="11"/>
@@ -11249,7 +11309,7 @@
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11">
       <c r="A472" s="2"/>
       <c r="B472" s="1"/>
       <c r="C472" s="11"/>
@@ -11262,7 +11322,7 @@
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11">
       <c r="A473" s="2"/>
       <c r="B473" s="1"/>
       <c r="C473" s="11"/>
@@ -11275,7 +11335,7 @@
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11">
       <c r="A474" s="2"/>
       <c r="B474" s="1"/>
       <c r="C474" s="11"/>
@@ -11288,7 +11348,7 @@
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11">
       <c r="A475" s="2"/>
       <c r="B475" s="1"/>
       <c r="C475" s="11"/>
@@ -11301,7 +11361,7 @@
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11">
       <c r="A476" s="2"/>
       <c r="B476" s="1"/>
       <c r="C476" s="11"/>
@@ -11314,7 +11374,7 @@
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11">
       <c r="A477" s="2"/>
       <c r="B477" s="1"/>
       <c r="C477" s="11"/>
@@ -11327,7 +11387,7 @@
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11">
       <c r="A478" s="2"/>
       <c r="B478" s="1"/>
       <c r="C478" s="11"/>
@@ -11340,7 +11400,7 @@
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11">
       <c r="A479" s="2"/>
       <c r="B479" s="1"/>
       <c r="C479" s="11"/>
@@ -11353,7 +11413,7 @@
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11">
       <c r="A480" s="2"/>
       <c r="B480" s="1"/>
       <c r="C480" s="11"/>
@@ -11366,7 +11426,7 @@
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11">
       <c r="A481" s="2"/>
       <c r="B481" s="1"/>
       <c r="C481" s="11"/>
@@ -11379,7 +11439,7 @@
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11">
       <c r="A482" s="2"/>
       <c r="B482" s="1"/>
       <c r="C482" s="11"/>
@@ -11392,7 +11452,7 @@
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11">
       <c r="A483" s="2"/>
       <c r="B483" s="1"/>
       <c r="C483" s="11"/>
@@ -11405,7 +11465,7 @@
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11">
       <c r="A484" s="2"/>
       <c r="B484" s="1"/>
       <c r="C484" s="11"/>
@@ -11418,7 +11478,7 @@
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11">
       <c r="A485" s="2"/>
       <c r="B485" s="1"/>
       <c r="C485" s="11"/>
@@ -11431,7 +11491,7 @@
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11">
       <c r="A486" s="2"/>
       <c r="B486" s="1"/>
       <c r="C486" s="11"/>
@@ -11444,7 +11504,7 @@
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11">
       <c r="A487" s="2"/>
       <c r="B487" s="1"/>
       <c r="C487" s="11"/>
@@ -11457,7 +11517,7 @@
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11">
       <c r="A488" s="2"/>
       <c r="B488" s="1"/>
       <c r="C488" s="11"/>
@@ -11470,7 +11530,7 @@
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11">
       <c r="A489" s="2"/>
       <c r="B489" s="1"/>
       <c r="C489" s="11"/>
@@ -11483,7 +11543,7 @@
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11">
       <c r="A490" s="2"/>
       <c r="B490" s="1"/>
       <c r="C490" s="11"/>
@@ -11496,7 +11556,7 @@
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11">
       <c r="A491" s="2"/>
       <c r="B491" s="1"/>
       <c r="C491" s="11"/>
@@ -11509,7 +11569,7 @@
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11">
       <c r="A492" s="2"/>
       <c r="B492" s="1"/>
       <c r="C492" s="11"/>
@@ -11522,7 +11582,7 @@
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11">
       <c r="A493" s="2"/>
       <c r="B493" s="1"/>
       <c r="C493" s="11"/>
@@ -11535,7 +11595,7 @@
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11">
       <c r="A494" s="2"/>
       <c r="B494" s="1"/>
       <c r="C494" s="11"/>
@@ -11548,7 +11608,7 @@
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11">
       <c r="A495" s="2"/>
       <c r="B495" s="1"/>
       <c r="C495" s="11"/>
@@ -11561,7 +11621,7 @@
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11">
       <c r="A496" s="2"/>
       <c r="B496" s="1"/>
       <c r="C496" s="11"/>
@@ -11574,7 +11634,7 @@
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11">
       <c r="A497" s="2"/>
       <c r="B497" s="1"/>
       <c r="C497" s="11"/>
@@ -11587,7 +11647,7 @@
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11">
       <c r="A498" s="2"/>
       <c r="B498" s="1"/>
       <c r="C498" s="11"/>
@@ -11600,7 +11660,7 @@
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11">
       <c r="A499" s="2"/>
       <c r="B499" s="1"/>
       <c r="C499" s="11"/>
@@ -11613,7 +11673,7 @@
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11">
       <c r="A500" s="2"/>
       <c r="B500" s="1"/>
       <c r="C500" s="11"/>
@@ -11626,7 +11686,7 @@
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11">
       <c r="A501" s="2"/>
       <c r="B501" s="1"/>
       <c r="C501" s="11"/>
@@ -11639,7 +11699,7 @@
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11">
       <c r="A502" s="2"/>
       <c r="B502" s="1"/>
       <c r="C502" s="11"/>
@@ -11652,7 +11712,7 @@
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11">
       <c r="A503" s="2"/>
       <c r="B503" s="1"/>
       <c r="C503" s="11"/>
@@ -11665,7 +11725,7 @@
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11">
       <c r="A504" s="2"/>
       <c r="B504" s="1"/>
       <c r="C504" s="11"/>
@@ -11678,7 +11738,7 @@
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11">
       <c r="A505" s="2"/>
       <c r="B505" s="1"/>
       <c r="C505" s="11"/>
@@ -11691,7 +11751,7 @@
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11">
       <c r="A506" s="2"/>
       <c r="B506" s="1"/>
       <c r="C506" s="11"/>
@@ -11704,7 +11764,7 @@
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11">
       <c r="A507" s="2"/>
       <c r="B507" s="1"/>
       <c r="C507" s="11"/>
@@ -11717,7 +11777,7 @@
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11">
       <c r="A508" s="2"/>
       <c r="B508" s="1"/>
       <c r="C508" s="11"/>
@@ -11730,7 +11790,7 @@
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11">
       <c r="A509" s="2"/>
       <c r="B509" s="1"/>
       <c r="C509" s="11"/>
@@ -11743,7 +11803,7 @@
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11">
       <c r="A510" s="2"/>
       <c r="B510" s="1"/>
       <c r="C510" s="11"/>
@@ -11756,7 +11816,7 @@
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11">
       <c r="A511" s="2"/>
       <c r="B511" s="1"/>
       <c r="C511" s="11"/>
@@ -11769,7 +11829,7 @@
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11">
       <c r="A512" s="2"/>
       <c r="B512" s="1"/>
       <c r="C512" s="11"/>
@@ -11782,7 +11842,7 @@
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11">
       <c r="A513" s="2"/>
       <c r="B513" s="1"/>
       <c r="C513" s="11"/>
@@ -11795,7 +11855,7 @@
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11">
       <c r="A514" s="2"/>
       <c r="B514" s="1"/>
       <c r="C514" s="11"/>
@@ -11808,7 +11868,7 @@
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11">
       <c r="A515" s="2"/>
       <c r="B515" s="1"/>
       <c r="C515" s="11"/>
@@ -11821,7 +11881,7 @@
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11">
       <c r="A516" s="2"/>
       <c r="B516" s="1"/>
       <c r="C516" s="11"/>
@@ -11834,7 +11894,7 @@
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11">
       <c r="A517" s="2"/>
       <c r="B517" s="1"/>
       <c r="C517" s="11"/>
@@ -11847,7 +11907,7 @@
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11">
       <c r="A518" s="2"/>
       <c r="B518" s="1"/>
       <c r="C518" s="11"/>
@@ -11860,7 +11920,7 @@
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11">
       <c r="A519" s="2"/>
       <c r="B519" s="1"/>
       <c r="C519" s="11"/>
@@ -11873,7 +11933,7 @@
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11">
       <c r="A520" s="2"/>
       <c r="B520" s="1"/>
       <c r="C520" s="11"/>
@@ -11886,7 +11946,7 @@
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11">
       <c r="A521" s="2"/>
       <c r="B521" s="1"/>
       <c r="C521" s="11"/>
@@ -11899,7 +11959,7 @@
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11">
       <c r="A522" s="2"/>
       <c r="B522" s="1"/>
       <c r="C522" s="11"/>
@@ -11912,7 +11972,7 @@
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11">
       <c r="A523" s="2"/>
       <c r="B523" s="1"/>
       <c r="C523" s="11"/>
@@ -11925,7 +11985,7 @@
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11">
       <c r="A524" s="2"/>
       <c r="B524" s="1"/>
       <c r="C524" s="11"/>
@@ -11938,7 +11998,7 @@
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11">
       <c r="A525" s="2"/>
       <c r="B525" s="1"/>
       <c r="C525" s="11"/>
@@ -11951,7 +12011,7 @@
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11">
       <c r="A526" s="2"/>
       <c r="B526" s="1"/>
       <c r="C526" s="11"/>
@@ -11964,7 +12024,7 @@
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11">
       <c r="A527" s="2"/>
       <c r="B527" s="1"/>
       <c r="C527" s="11"/>
@@ -11977,7 +12037,7 @@
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11">
       <c r="A528" s="2"/>
       <c r="B528" s="1"/>
       <c r="C528" s="11"/>
@@ -11990,7 +12050,7 @@
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11">
       <c r="A529" s="2"/>
       <c r="B529" s="1"/>
       <c r="C529" s="11"/>
@@ -12003,7 +12063,7 @@
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11">
       <c r="A530" s="2"/>
       <c r="B530" s="1"/>
       <c r="C530" s="11"/>
@@ -12016,7 +12076,7 @@
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11">
       <c r="A531" s="2"/>
       <c r="B531" s="1"/>
       <c r="C531" s="11"/>
@@ -12029,7 +12089,7 @@
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11">
       <c r="A532" s="2"/>
       <c r="B532" s="1"/>
       <c r="C532" s="11"/>
@@ -12042,7 +12102,7 @@
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11">
       <c r="A533" s="2"/>
       <c r="B533" s="1"/>
       <c r="C533" s="11"/>
@@ -12055,7 +12115,7 @@
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11">
       <c r="A534" s="2"/>
       <c r="B534" s="1"/>
       <c r="C534" s="11"/>
@@ -12068,7 +12128,7 @@
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11">
       <c r="A535" s="2"/>
       <c r="B535" s="1"/>
       <c r="C535" s="11"/>
@@ -12081,7 +12141,7 @@
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11">
       <c r="A536" s="2"/>
       <c r="B536" s="1"/>
       <c r="C536" s="11"/>
@@ -12094,7 +12154,7 @@
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11">
       <c r="A537" s="2"/>
       <c r="B537" s="1"/>
       <c r="C537" s="11"/>
@@ -12107,7 +12167,7 @@
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11">
       <c r="A538" s="2"/>
       <c r="B538" s="1"/>
       <c r="C538" s="11"/>
@@ -12120,7 +12180,7 @@
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11">
       <c r="A539" s="2"/>
       <c r="B539" s="1"/>
       <c r="C539" s="11"/>
@@ -12133,7 +12193,7 @@
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11">
       <c r="A540" s="2"/>
       <c r="B540" s="1"/>
       <c r="C540" s="11"/>
@@ -12146,7 +12206,7 @@
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11">
       <c r="A541" s="2"/>
       <c r="B541" s="1"/>
       <c r="C541" s="11"/>
@@ -12159,7 +12219,7 @@
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11">
       <c r="A542" s="2"/>
       <c r="B542" s="1"/>
       <c r="C542" s="11"/>
@@ -12172,7 +12232,7 @@
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11">
       <c r="A543" s="2"/>
       <c r="B543" s="1"/>
       <c r="C543" s="11"/>
@@ -12185,7 +12245,7 @@
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11">
       <c r="A544" s="2"/>
       <c r="B544" s="1"/>
       <c r="C544" s="11"/>
@@ -12198,7 +12258,7 @@
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11">
       <c r="A545" s="2"/>
       <c r="B545" s="1"/>
       <c r="C545" s="11"/>
@@ -12211,7 +12271,7 @@
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11">
       <c r="A546" s="2"/>
       <c r="B546" s="1"/>
       <c r="C546" s="11"/>
@@ -12224,7 +12284,7 @@
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11">
       <c r="A547" s="2"/>
       <c r="B547" s="1"/>
       <c r="C547" s="11"/>
@@ -12237,7 +12297,7 @@
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11">
       <c r="A548" s="2"/>
       <c r="B548" s="1"/>
       <c r="C548" s="11"/>
@@ -12250,7 +12310,7 @@
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11">
       <c r="A549" s="2"/>
       <c r="B549" s="1"/>
       <c r="C549" s="11"/>
@@ -12263,7 +12323,7 @@
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11">
       <c r="A550" s="2"/>
       <c r="B550" s="1"/>
       <c r="C550" s="11"/>
@@ -12276,7 +12336,7 @@
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11">
       <c r="A551" s="2"/>
       <c r="B551" s="1"/>
       <c r="C551" s="11"/>
@@ -12289,7 +12349,7 @@
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11">
       <c r="A552" s="2"/>
       <c r="B552" s="1"/>
       <c r="C552" s="11"/>
@@ -12302,7 +12362,7 @@
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11">
       <c r="A553" s="2"/>
       <c r="B553" s="1"/>
       <c r="C553" s="11"/>
@@ -12315,7 +12375,7 @@
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11">
       <c r="A554" s="2"/>
       <c r="B554" s="1"/>
       <c r="C554" s="11"/>
@@ -12328,7 +12388,7 @@
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11">
       <c r="A555" s="2"/>
       <c r="B555" s="1"/>
       <c r="C555" s="11"/>
@@ -12341,7 +12401,7 @@
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11">
       <c r="A556" s="2"/>
       <c r="B556" s="1"/>
       <c r="C556" s="11"/>
@@ -12354,7 +12414,7 @@
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11">
       <c r="A557" s="2"/>
       <c r="B557" s="1"/>
       <c r="C557" s="11"/>
@@ -12367,7 +12427,7 @@
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11">
       <c r="A558" s="2"/>
       <c r="B558" s="1"/>
       <c r="C558" s="11"/>
@@ -12380,7 +12440,7 @@
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11">
       <c r="A559" s="2"/>
       <c r="B559" s="1"/>
       <c r="C559" s="11"/>
@@ -12393,7 +12453,7 @@
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11">
       <c r="A560" s="2"/>
       <c r="B560" s="1"/>
       <c r="C560" s="11"/>
@@ -12406,7 +12466,7 @@
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11">
       <c r="A561" s="2"/>
       <c r="B561" s="1"/>
       <c r="C561" s="11"/>
@@ -12419,7 +12479,7 @@
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11">
       <c r="A562" s="2"/>
       <c r="B562" s="1"/>
       <c r="C562" s="11"/>
@@ -12432,7 +12492,7 @@
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11">
       <c r="A563" s="2"/>
       <c r="B563" s="1"/>
       <c r="C563" s="11"/>
@@ -12445,7 +12505,7 @@
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11">
       <c r="A564" s="2"/>
       <c r="B564" s="1"/>
       <c r="C564" s="11"/>
@@ -12458,7 +12518,7 @@
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11">
       <c r="A565" s="2"/>
       <c r="B565" s="1"/>
       <c r="C565" s="11"/>
@@ -12471,7 +12531,7 @@
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11">
       <c r="A566" s="2"/>
       <c r="B566" s="1"/>
       <c r="C566" s="11"/>
@@ -12484,7 +12544,7 @@
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11">
       <c r="A567" s="2"/>
       <c r="B567" s="1"/>
       <c r="C567" s="11"/>
@@ -12497,7 +12557,7 @@
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11">
       <c r="A568" s="2"/>
       <c r="B568" s="1"/>
       <c r="C568" s="11"/>
@@ -12510,7 +12570,7 @@
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11">
       <c r="A569" s="2"/>
       <c r="B569" s="1"/>
       <c r="C569" s="11"/>
@@ -12523,7 +12583,7 @@
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11">
       <c r="A570" s="2"/>
       <c r="B570" s="1"/>
       <c r="C570" s="11"/>
@@ -12536,7 +12596,7 @@
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11">
       <c r="A571" s="2"/>
       <c r="B571" s="1"/>
       <c r="C571" s="11"/>
@@ -12549,7 +12609,7 @@
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11">
       <c r="A572" s="2"/>
       <c r="B572" s="1"/>
       <c r="C572" s="11"/>
@@ -12562,7 +12622,7 @@
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11">
       <c r="A573" s="2"/>
       <c r="B573" s="1"/>
       <c r="C573" s="11"/>
@@ -12575,7 +12635,7 @@
       <c r="J573" s="1"/>
       <c r="K573" s="1"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11">
       <c r="A574" s="2"/>
       <c r="B574" s="1"/>
       <c r="C574" s="11"/>
@@ -12588,7 +12648,7 @@
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11">
       <c r="A575" s="2"/>
       <c r="B575" s="1"/>
       <c r="C575" s="11"/>
@@ -12601,7 +12661,7 @@
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11">
       <c r="A576" s="2"/>
       <c r="B576" s="1"/>
       <c r="C576" s="11"/>
@@ -12614,7 +12674,7 @@
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11">
       <c r="A577" s="2"/>
       <c r="B577" s="1"/>
       <c r="C577" s="11"/>
@@ -12627,7 +12687,7 @@
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11">
       <c r="A578" s="2"/>
       <c r="B578" s="1"/>
       <c r="C578" s="11"/>
@@ -12640,7 +12700,7 @@
       <c r="J578" s="1"/>
       <c r="K578" s="1"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11">
       <c r="A579" s="2"/>
       <c r="B579" s="1"/>
       <c r="C579" s="11"/>
@@ -12653,7 +12713,7 @@
       <c r="J579" s="1"/>
       <c r="K579" s="1"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11">
       <c r="A580" s="2"/>
       <c r="B580" s="1"/>
       <c r="C580" s="11"/>
@@ -12666,7 +12726,7 @@
       <c r="J580" s="1"/>
       <c r="K580" s="1"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11">
       <c r="A581" s="2"/>
       <c r="B581" s="1"/>
       <c r="C581" s="11"/>
@@ -12679,7 +12739,7 @@
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11">
       <c r="A582" s="2"/>
       <c r="B582" s="1"/>
       <c r="C582" s="11"/>
@@ -12692,7 +12752,7 @@
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11">
       <c r="A583" s="2"/>
       <c r="B583" s="1"/>
       <c r="C583" s="11"/>
@@ -12705,7 +12765,7 @@
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11">
       <c r="A584" s="2"/>
       <c r="B584" s="1"/>
       <c r="C584" s="11"/>
@@ -12718,7 +12778,7 @@
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11">
       <c r="A585" s="2"/>
       <c r="B585" s="1"/>
       <c r="C585" s="11"/>
@@ -12731,7 +12791,7 @@
       <c r="J585" s="1"/>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11">
       <c r="A586" s="2"/>
       <c r="B586" s="1"/>
       <c r="C586" s="11"/>
@@ -12744,7 +12804,7 @@
       <c r="J586" s="1"/>
       <c r="K586" s="1"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11">
       <c r="A587" s="2"/>
       <c r="B587" s="1"/>
       <c r="C587" s="11"/>
@@ -12757,7 +12817,7 @@
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11">
       <c r="A588" s="2"/>
       <c r="B588" s="1"/>
       <c r="C588" s="11"/>
@@ -12770,7 +12830,7 @@
       <c r="J588" s="1"/>
       <c r="K588" s="1"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11">
       <c r="A589" s="2"/>
       <c r="B589" s="1"/>
       <c r="C589" s="11"/>
@@ -12783,7 +12843,7 @@
       <c r="J589" s="1"/>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11">
       <c r="A590" s="2"/>
       <c r="B590" s="1"/>
       <c r="C590" s="11"/>
@@ -12796,7 +12856,7 @@
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11">
       <c r="A591" s="2"/>
       <c r="B591" s="1"/>
       <c r="C591" s="11"/>
@@ -12809,7 +12869,7 @@
       <c r="J591" s="1"/>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11">
       <c r="A592" s="2"/>
       <c r="B592" s="1"/>
       <c r="C592" s="11"/>
@@ -12822,7 +12882,7 @@
       <c r="J592" s="1"/>
       <c r="K592" s="1"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11">
       <c r="A593" s="2"/>
       <c r="B593" s="1"/>
       <c r="C593" s="11"/>
@@ -12835,7 +12895,7 @@
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11">
       <c r="A594" s="2"/>
       <c r="B594" s="1"/>
       <c r="C594" s="11"/>
@@ -12848,7 +12908,7 @@
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11">
       <c r="A595" s="2"/>
       <c r="B595" s="1"/>
       <c r="C595" s="11"/>
@@ -12861,7 +12921,7 @@
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11">
       <c r="A596" s="2"/>
       <c r="B596" s="1"/>
       <c r="C596" s="11"/>
@@ -12874,7 +12934,7 @@
       <c r="J596" s="1"/>
       <c r="K596" s="1"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11">
       <c r="A597" s="2"/>
       <c r="B597" s="1"/>
       <c r="C597" s="11"/>
@@ -12887,7 +12947,7 @@
       <c r="J597" s="1"/>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11">
       <c r="A598" s="2"/>
       <c r="B598" s="1"/>
       <c r="C598" s="11"/>
@@ -12900,7 +12960,7 @@
       <c r="J598" s="1"/>
       <c r="K598" s="1"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11">
       <c r="A599" s="2"/>
       <c r="B599" s="1"/>
       <c r="C599" s="11"/>
@@ -12913,7 +12973,7 @@
       <c r="J599" s="1"/>
       <c r="K599" s="1"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11">
       <c r="A600" s="2"/>
       <c r="B600" s="1"/>
       <c r="C600" s="11"/>
@@ -12926,7 +12986,7 @@
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11">
       <c r="A601" s="2"/>
       <c r="B601" s="1"/>
       <c r="C601" s="11"/>
@@ -12939,7 +12999,7 @@
       <c r="J601" s="1"/>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11">
       <c r="A602" s="2"/>
       <c r="B602" s="1"/>
       <c r="C602" s="11"/>
@@ -12952,7 +13012,7 @@
       <c r="J602" s="1"/>
       <c r="K602" s="1"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11">
       <c r="A603" s="2"/>
       <c r="B603" s="1"/>
       <c r="C603" s="11"/>
@@ -12965,7 +13025,7 @@
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11">
       <c r="A604" s="2"/>
       <c r="B604" s="1"/>
       <c r="C604" s="11"/>
@@ -12978,7 +13038,7 @@
       <c r="J604" s="1"/>
       <c r="K604" s="1"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11">
       <c r="A605" s="2"/>
       <c r="B605" s="1"/>
       <c r="C605" s="11"/>
@@ -12991,7 +13051,7 @@
       <c r="J605" s="1"/>
       <c r="K605" s="1"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11">
       <c r="A606" s="2"/>
       <c r="B606" s="1"/>
       <c r="C606" s="11"/>
@@ -13004,7 +13064,7 @@
       <c r="J606" s="1"/>
       <c r="K606" s="1"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11">
       <c r="A607" s="2"/>
       <c r="B607" s="1"/>
       <c r="C607" s="11"/>
@@ -13017,7 +13077,7 @@
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11">
       <c r="A608" s="2"/>
       <c r="B608" s="1"/>
       <c r="C608" s="11"/>
@@ -13030,7 +13090,7 @@
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11">
       <c r="A609" s="2"/>
       <c r="B609" s="1"/>
       <c r="C609" s="11"/>
@@ -13043,7 +13103,7 @@
       <c r="J609" s="1"/>
       <c r="K609" s="1"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11">
       <c r="A610" s="2"/>
       <c r="B610" s="1"/>
       <c r="C610" s="11"/>
@@ -13056,7 +13116,7 @@
       <c r="J610" s="1"/>
       <c r="K610" s="1"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11">
       <c r="A611" s="2"/>
       <c r="B611" s="1"/>
       <c r="C611" s="11"/>
@@ -13069,7 +13129,7 @@
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11">
       <c r="A612" s="2"/>
       <c r="B612" s="1"/>
       <c r="C612" s="11"/>
@@ -13082,7 +13142,7 @@
       <c r="J612" s="1"/>
       <c r="K612" s="1"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11">
       <c r="A613" s="2"/>
       <c r="B613" s="1"/>
       <c r="C613" s="11"/>
@@ -13095,7 +13155,7 @@
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11">
       <c r="A614" s="2"/>
       <c r="B614" s="1"/>
       <c r="C614" s="11"/>
@@ -13108,7 +13168,7 @@
       <c r="J614" s="1"/>
       <c r="K614" s="1"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11">
       <c r="A615" s="2"/>
       <c r="B615" s="1"/>
       <c r="C615" s="11"/>
@@ -13121,7 +13181,7 @@
       <c r="J615" s="1"/>
       <c r="K615" s="1"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11">
       <c r="A616" s="2"/>
       <c r="B616" s="1"/>
       <c r="C616" s="11"/>
@@ -13134,7 +13194,7 @@
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11">
       <c r="A617" s="2"/>
       <c r="B617" s="1"/>
       <c r="C617" s="11"/>
@@ -13147,7 +13207,7 @@
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11">
       <c r="A618" s="2"/>
       <c r="B618" s="1"/>
       <c r="C618" s="11"/>
@@ -13160,7 +13220,7 @@
       <c r="J618" s="1"/>
       <c r="K618" s="1"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11">
       <c r="A619" s="2"/>
       <c r="B619" s="1"/>
       <c r="C619" s="11"/>
@@ -13173,7 +13233,7 @@
       <c r="J619" s="1"/>
       <c r="K619" s="1"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11">
       <c r="A620" s="2"/>
       <c r="B620" s="1"/>
       <c r="C620" s="11"/>
@@ -13186,7 +13246,7 @@
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11">
       <c r="A621" s="2"/>
       <c r="B621" s="1"/>
       <c r="C621" s="11"/>
@@ -13199,7 +13259,7 @@
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11">
       <c r="A622" s="2"/>
       <c r="B622" s="1"/>
       <c r="C622" s="11"/>
@@ -13212,7 +13272,7 @@
       <c r="J622" s="1"/>
       <c r="K622" s="1"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11">
       <c r="A623" s="2"/>
       <c r="B623" s="1"/>
       <c r="C623" s="11"/>
@@ -13225,7 +13285,7 @@
       <c r="J623" s="1"/>
       <c r="K623" s="1"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11">
       <c r="A624" s="2"/>
       <c r="B624" s="1"/>
       <c r="C624" s="11"/>
@@ -13238,7 +13298,7 @@
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11">
       <c r="A625" s="2"/>
       <c r="B625" s="1"/>
       <c r="C625" s="11"/>
@@ -13251,7 +13311,7 @@
       <c r="J625" s="1"/>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11">
       <c r="A626" s="2"/>
       <c r="B626" s="1"/>
       <c r="C626" s="11"/>
@@ -13264,7 +13324,7 @@
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11">
       <c r="A627" s="2"/>
       <c r="B627" s="1"/>
       <c r="C627" s="11"/>
@@ -13277,7 +13337,7 @@
       <c r="J627" s="1"/>
       <c r="K627" s="1"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11">
       <c r="A628" s="2"/>
       <c r="B628" s="1"/>
       <c r="C628" s="11"/>
@@ -13290,7 +13350,7 @@
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11">
       <c r="A629" s="2"/>
       <c r="B629" s="1"/>
       <c r="C629" s="11"/>
@@ -13303,7 +13363,7 @@
       <c r="J629" s="1"/>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11">
       <c r="A630" s="2"/>
       <c r="B630" s="1"/>
       <c r="C630" s="11"/>
@@ -13316,7 +13376,7 @@
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11">
       <c r="A631" s="2"/>
       <c r="B631" s="1"/>
       <c r="C631" s="11"/>
@@ -13329,7 +13389,7 @@
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11">
       <c r="A632" s="2"/>
       <c r="B632" s="1"/>
       <c r="C632" s="11"/>
@@ -13342,7 +13402,7 @@
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11">
       <c r="A633" s="2"/>
       <c r="B633" s="1"/>
       <c r="C633" s="11"/>
@@ -13355,7 +13415,7 @@
       <c r="J633" s="1"/>
       <c r="K633" s="1"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11">
       <c r="A634" s="2"/>
       <c r="B634" s="1"/>
       <c r="C634" s="11"/>
@@ -13368,7 +13428,7 @@
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11">
       <c r="A635" s="2"/>
       <c r="B635" s="1"/>
       <c r="C635" s="11"/>
@@ -13381,7 +13441,7 @@
       <c r="J635" s="1"/>
       <c r="K635" s="1"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11">
       <c r="A636" s="2"/>
       <c r="B636" s="1"/>
       <c r="C636" s="11"/>
@@ -13394,7 +13454,7 @@
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11">
       <c r="A637" s="2"/>
       <c r="B637" s="1"/>
       <c r="C637" s="11"/>
@@ -13407,7 +13467,7 @@
       <c r="J637" s="1"/>
       <c r="K637" s="1"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11">
       <c r="A638" s="2"/>
       <c r="B638" s="1"/>
       <c r="C638" s="11"/>
@@ -13420,7 +13480,7 @@
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11">
       <c r="A639" s="2"/>
       <c r="B639" s="1"/>
       <c r="C639" s="11"/>
@@ -13433,7 +13493,7 @@
       <c r="J639" s="1"/>
       <c r="K639" s="1"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11">
       <c r="A640" s="2"/>
       <c r="B640" s="1"/>
       <c r="C640" s="11"/>
@@ -13446,7 +13506,7 @@
       <c r="J640" s="1"/>
       <c r="K640" s="1"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11">
       <c r="A641" s="2"/>
       <c r="B641" s="1"/>
       <c r="C641" s="11"/>
@@ -13459,7 +13519,7 @@
       <c r="J641" s="1"/>
       <c r="K641" s="1"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11">
       <c r="A642" s="2"/>
       <c r="B642" s="1"/>
       <c r="C642" s="11"/>
@@ -13472,7 +13532,7 @@
       <c r="J642" s="1"/>
       <c r="K642" s="1"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11">
       <c r="A643" s="2"/>
       <c r="B643" s="1"/>
       <c r="C643" s="11"/>
@@ -13485,7 +13545,7 @@
       <c r="J643" s="1"/>
       <c r="K643" s="1"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11">
       <c r="A644" s="2"/>
       <c r="B644" s="1"/>
       <c r="C644" s="11"/>
@@ -13498,7 +13558,7 @@
       <c r="J644" s="1"/>
       <c r="K644" s="1"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11">
       <c r="A645" s="2"/>
       <c r="B645" s="1"/>
       <c r="C645" s="11"/>
@@ -13511,7 +13571,7 @@
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11">
       <c r="A646" s="2"/>
       <c r="B646" s="1"/>
       <c r="C646" s="11"/>
@@ -13524,7 +13584,7 @@
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11">
       <c r="A647" s="2"/>
       <c r="B647" s="1"/>
       <c r="C647" s="11"/>
@@ -13537,7 +13597,7 @@
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11">
       <c r="A648" s="2"/>
       <c r="B648" s="1"/>
       <c r="C648" s="11"/>
@@ -13550,7 +13610,7 @@
       <c r="J648" s="1"/>
       <c r="K648" s="1"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11">
       <c r="A649" s="2"/>
       <c r="B649" s="1"/>
       <c r="C649" s="11"/>
@@ -13563,7 +13623,7 @@
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11">
       <c r="A650" s="2"/>
       <c r="B650" s="1"/>
       <c r="C650" s="11"/>
@@ -13576,7 +13636,7 @@
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11">
       <c r="A651" s="2"/>
       <c r="B651" s="1"/>
       <c r="C651" s="11"/>
@@ -13589,7 +13649,7 @@
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11">
       <c r="A652" s="2"/>
       <c r="B652" s="1"/>
       <c r="C652" s="11"/>
@@ -13602,7 +13662,7 @@
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11">
       <c r="A653" s="2"/>
       <c r="B653" s="1"/>
       <c r="C653" s="11"/>
@@ -13615,7 +13675,7 @@
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11">
       <c r="A654" s="2"/>
       <c r="B654" s="1"/>
       <c r="C654" s="11"/>
@@ -13628,7 +13688,7 @@
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11">
       <c r="A655" s="2"/>
       <c r="B655" s="1"/>
       <c r="C655" s="11"/>
@@ -13641,7 +13701,7 @@
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11">
       <c r="A656" s="2"/>
       <c r="B656" s="1"/>
       <c r="C656" s="11"/>
@@ -13654,7 +13714,7 @@
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11">
       <c r="A657" s="2"/>
       <c r="B657" s="1"/>
       <c r="C657" s="11"/>
@@ -13667,7 +13727,7 @@
       <c r="J657" s="1"/>
       <c r="K657" s="1"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11">
       <c r="A658" s="2"/>
       <c r="B658" s="1"/>
       <c r="C658" s="11"/>
@@ -13680,7 +13740,7 @@
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11">
       <c r="A659" s="2"/>
       <c r="B659" s="1"/>
       <c r="C659" s="11"/>
@@ -13693,7 +13753,7 @@
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11">
       <c r="A660" s="2"/>
       <c r="B660" s="1"/>
       <c r="C660" s="11"/>
@@ -13706,7 +13766,7 @@
       <c r="J660" s="1"/>
       <c r="K660" s="1"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11">
       <c r="A661" s="2"/>
       <c r="B661" s="1"/>
       <c r="C661" s="11"/>
@@ -13719,7 +13779,7 @@
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11">
       <c r="A662" s="2"/>
       <c r="B662" s="1"/>
       <c r="C662" s="11"/>
@@ -13732,7 +13792,7 @@
       <c r="J662" s="1"/>
       <c r="K662" s="1"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11">
       <c r="A663" s="2"/>
       <c r="B663" s="1"/>
       <c r="C663" s="11"/>
@@ -13745,7 +13805,7 @@
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11">
       <c r="A664" s="2"/>
       <c r="B664" s="1"/>
       <c r="C664" s="11"/>
@@ -13758,7 +13818,7 @@
       <c r="J664" s="1"/>
       <c r="K664" s="1"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11">
       <c r="A665" s="2"/>
       <c r="B665" s="1"/>
       <c r="C665" s="11"/>
@@ -13771,7 +13831,7 @@
       <c r="J665" s="1"/>
       <c r="K665" s="1"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11">
       <c r="A666" s="2"/>
       <c r="B666" s="1"/>
       <c r="C666" s="11"/>
@@ -13784,7 +13844,7 @@
       <c r="J666" s="1"/>
       <c r="K666" s="1"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11">
       <c r="A667" s="2"/>
       <c r="B667" s="1"/>
       <c r="C667" s="11"/>
@@ -13797,7 +13857,7 @@
       <c r="J667" s="1"/>
       <c r="K667" s="1"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11">
       <c r="A668" s="2"/>
       <c r="B668" s="1"/>
       <c r="C668" s="11"/>
@@ -13810,7 +13870,7 @@
       <c r="J668" s="1"/>
       <c r="K668" s="1"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11">
       <c r="A669" s="2"/>
       <c r="B669" s="1"/>
       <c r="C669" s="11"/>
@@ -13823,7 +13883,7 @@
       <c r="J669" s="1"/>
       <c r="K669" s="1"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11">
       <c r="A670" s="2"/>
       <c r="B670" s="1"/>
       <c r="C670" s="11"/>
@@ -13836,7 +13896,7 @@
       <c r="J670" s="1"/>
       <c r="K670" s="1"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11">
       <c r="A671" s="2"/>
       <c r="B671" s="1"/>
       <c r="C671" s="11"/>
@@ -13849,7 +13909,7 @@
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11">
       <c r="A672" s="2"/>
       <c r="B672" s="1"/>
       <c r="C672" s="11"/>
@@ -13862,7 +13922,7 @@
       <c r="J672" s="1"/>
       <c r="K672" s="1"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11">
       <c r="A673" s="2"/>
       <c r="B673" s="1"/>
       <c r="C673" s="11"/>
@@ -13875,7 +13935,7 @@
       <c r="J673" s="1"/>
       <c r="K673" s="1"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11">
       <c r="A674" s="2"/>
       <c r="B674" s="1"/>
       <c r="C674" s="11"/>
@@ -13888,7 +13948,7 @@
       <c r="J674" s="1"/>
       <c r="K674" s="1"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11">
       <c r="A675" s="2"/>
       <c r="B675" s="1"/>
       <c r="C675" s="11"/>
@@ -13901,7 +13961,7 @@
       <c r="J675" s="1"/>
       <c r="K675" s="1"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11">
       <c r="A676" s="2"/>
       <c r="B676" s="1"/>
       <c r="C676" s="11"/>
@@ -13914,7 +13974,7 @@
       <c r="J676" s="1"/>
       <c r="K676" s="1"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11">
       <c r="A677" s="2"/>
       <c r="B677" s="1"/>
       <c r="C677" s="11"/>
@@ -13927,7 +13987,7 @@
       <c r="J677" s="1"/>
       <c r="K677" s="1"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11">
       <c r="A678" s="2"/>
       <c r="B678" s="1"/>
       <c r="C678" s="11"/>
@@ -13940,7 +14000,7 @@
       <c r="J678" s="1"/>
       <c r="K678" s="1"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11">
       <c r="A679" s="2"/>
       <c r="B679" s="1"/>
       <c r="C679" s="11"/>
@@ -13953,7 +14013,7 @@
       <c r="J679" s="1"/>
       <c r="K679" s="1"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11">
       <c r="A680" s="2"/>
       <c r="B680" s="1"/>
       <c r="C680" s="11"/>
@@ -13966,7 +14026,7 @@
       <c r="J680" s="1"/>
       <c r="K680" s="1"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11">
       <c r="A681" s="2"/>
       <c r="B681" s="1"/>
       <c r="C681" s="11"/>
@@ -13979,7 +14039,7 @@
       <c r="J681" s="1"/>
       <c r="K681" s="1"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11">
       <c r="A682" s="2"/>
       <c r="B682" s="1"/>
       <c r="C682" s="11"/>
@@ -13992,7 +14052,7 @@
       <c r="J682" s="1"/>
       <c r="K682" s="1"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11">
       <c r="A683" s="2"/>
       <c r="B683" s="1"/>
       <c r="C683" s="11"/>
@@ -14005,7 +14065,7 @@
       <c r="J683" s="1"/>
       <c r="K683" s="1"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11">
       <c r="A684" s="2"/>
       <c r="B684" s="1"/>
       <c r="C684" s="11"/>
@@ -14018,7 +14078,7 @@
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11">
       <c r="A685" s="2"/>
       <c r="B685" s="1"/>
       <c r="C685" s="11"/>
@@ -14031,7 +14091,7 @@
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11">
       <c r="A686" s="2"/>
       <c r="B686" s="1"/>
       <c r="C686" s="11"/>
@@ -14044,7 +14104,7 @@
       <c r="J686" s="1"/>
       <c r="K686" s="1"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11">
       <c r="A687" s="2"/>
       <c r="B687" s="1"/>
       <c r="C687" s="11"/>
@@ -14057,7 +14117,7 @@
       <c r="J687" s="1"/>
       <c r="K687" s="1"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11">
       <c r="A688" s="2"/>
       <c r="B688" s="1"/>
       <c r="C688" s="11"/>
@@ -14070,7 +14130,7 @@
       <c r="J688" s="1"/>
       <c r="K688" s="1"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11">
       <c r="A689" s="2"/>
       <c r="B689" s="1"/>
       <c r="C689" s="11"/>
@@ -14083,7 +14143,7 @@
       <c r="J689" s="1"/>
       <c r="K689" s="1"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11">
       <c r="A690" s="2"/>
       <c r="B690" s="1"/>
       <c r="C690" s="11"/>
@@ -14096,7 +14156,7 @@
       <c r="J690" s="1"/>
       <c r="K690" s="1"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11">
       <c r="A691" s="2"/>
       <c r="B691" s="1"/>
       <c r="C691" s="11"/>
@@ -14109,7 +14169,7 @@
       <c r="J691" s="1"/>
       <c r="K691" s="1"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11">
       <c r="A692" s="2"/>
       <c r="B692" s="1"/>
       <c r="C692" s="11"/>
@@ -14122,7 +14182,7 @@
       <c r="J692" s="1"/>
       <c r="K692" s="1"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11">
       <c r="A693" s="2"/>
       <c r="B693" s="1"/>
       <c r="C693" s="11"/>
@@ -14135,7 +14195,7 @@
       <c r="J693" s="1"/>
       <c r="K693" s="1"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11">
       <c r="A694" s="2"/>
       <c r="B694" s="1"/>
       <c r="C694" s="11"/>
@@ -14148,7 +14208,7 @@
       <c r="J694" s="1"/>
       <c r="K694" s="1"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11">
       <c r="A695" s="2"/>
       <c r="B695" s="1"/>
       <c r="C695" s="11"/>
@@ -14161,7 +14221,7 @@
       <c r="J695" s="1"/>
       <c r="K695" s="1"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11">
       <c r="A696" s="2"/>
       <c r="B696" s="1"/>
       <c r="C696" s="11"/>
@@ -14174,7 +14234,7 @@
       <c r="J696" s="1"/>
       <c r="K696" s="1"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11">
       <c r="A697" s="2"/>
       <c r="B697" s="1"/>
       <c r="C697" s="11"/>
@@ -14187,7 +14247,7 @@
       <c r="J697" s="1"/>
       <c r="K697" s="1"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11">
       <c r="A698" s="2"/>
       <c r="B698" s="1"/>
       <c r="C698" s="11"/>
@@ -14200,7 +14260,7 @@
       <c r="J698" s="1"/>
       <c r="K698" s="1"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11">
       <c r="A699" s="2"/>
       <c r="B699" s="1"/>
       <c r="C699" s="11"/>
@@ -14213,7 +14273,7 @@
       <c r="J699" s="1"/>
       <c r="K699" s="1"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11">
       <c r="A700" s="2"/>
       <c r="B700" s="1"/>
       <c r="C700" s="11"/>
@@ -14226,7 +14286,7 @@
       <c r="J700" s="1"/>
       <c r="K700" s="1"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11">
       <c r="A701" s="2"/>
       <c r="B701" s="1"/>
       <c r="C701" s="11"/>
@@ -14239,7 +14299,7 @@
       <c r="J701" s="1"/>
       <c r="K701" s="1"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11">
       <c r="A702" s="2"/>
       <c r="B702" s="1"/>
       <c r="C702" s="11"/>
@@ -14252,7 +14312,7 @@
       <c r="J702" s="1"/>
       <c r="K702" s="1"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11">
       <c r="A703" s="2"/>
       <c r="B703" s="1"/>
       <c r="C703" s="11"/>
@@ -14265,7 +14325,7 @@
       <c r="J703" s="1"/>
       <c r="K703" s="1"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11">
       <c r="A704" s="2"/>
       <c r="B704" s="1"/>
       <c r="C704" s="11"/>
@@ -14278,7 +14338,7 @@
       <c r="J704" s="1"/>
       <c r="K704" s="1"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11">
       <c r="A705" s="2"/>
       <c r="B705" s="1"/>
       <c r="C705" s="11"/>
@@ -14291,7 +14351,7 @@
       <c r="J705" s="1"/>
       <c r="K705" s="1"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11">
       <c r="A706" s="2"/>
       <c r="B706" s="1"/>
       <c r="C706" s="11"/>
@@ -14304,7 +14364,7 @@
       <c r="J706" s="1"/>
       <c r="K706" s="1"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11">
       <c r="A707" s="2"/>
       <c r="B707" s="1"/>
       <c r="C707" s="11"/>
@@ -14317,7 +14377,7 @@
       <c r="J707" s="1"/>
       <c r="K707" s="1"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11">
       <c r="A708" s="2"/>
       <c r="B708" s="1"/>
       <c r="C708" s="11"/>
@@ -14330,7 +14390,7 @@
       <c r="J708" s="1"/>
       <c r="K708" s="1"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11">
       <c r="A709" s="2"/>
       <c r="B709" s="1"/>
       <c r="C709" s="11"/>
@@ -14343,7 +14403,7 @@
       <c r="J709" s="1"/>
       <c r="K709" s="1"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11">
       <c r="A710" s="2"/>
       <c r="B710" s="1"/>
       <c r="C710" s="11"/>
@@ -14356,7 +14416,7 @@
       <c r="J710" s="1"/>
       <c r="K710" s="1"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11">
       <c r="A711" s="2"/>
       <c r="B711" s="1"/>
       <c r="C711" s="11"/>
@@ -14369,7 +14429,7 @@
       <c r="J711" s="1"/>
       <c r="K711" s="1"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11">
       <c r="A712" s="2"/>
       <c r="B712" s="1"/>
       <c r="C712" s="11"/>
@@ -14382,7 +14442,7 @@
       <c r="J712" s="1"/>
       <c r="K712" s="1"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11">
       <c r="A713" s="2"/>
       <c r="B713" s="1"/>
       <c r="C713" s="11"/>
@@ -14395,7 +14455,7 @@
       <c r="J713" s="1"/>
       <c r="K713" s="1"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11">
       <c r="A714" s="2"/>
       <c r="B714" s="1"/>
       <c r="C714" s="11"/>
@@ -14408,7 +14468,7 @@
       <c r="J714" s="1"/>
       <c r="K714" s="1"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11">
       <c r="A715" s="2"/>
       <c r="B715" s="1"/>
       <c r="C715" s="11"/>
@@ -14421,7 +14481,7 @@
       <c r="J715" s="1"/>
       <c r="K715" s="1"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11">
       <c r="A716" s="2"/>
       <c r="B716" s="1"/>
       <c r="C716" s="11"/>
@@ -14434,7 +14494,7 @@
       <c r="J716" s="1"/>
       <c r="K716" s="1"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11">
       <c r="A717" s="2"/>
       <c r="B717" s="1"/>
       <c r="C717" s="11"/>
@@ -14447,7 +14507,7 @@
       <c r="J717" s="1"/>
       <c r="K717" s="1"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11">
       <c r="A718" s="2"/>
       <c r="B718" s="1"/>
       <c r="C718" s="11"/>
@@ -14460,7 +14520,7 @@
       <c r="J718" s="1"/>
       <c r="K718" s="1"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11">
       <c r="A719" s="2"/>
       <c r="B719" s="1"/>
       <c r="C719" s="11"/>
@@ -14473,7 +14533,7 @@
       <c r="J719" s="1"/>
       <c r="K719" s="1"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11">
       <c r="A720" s="2"/>
       <c r="B720" s="1"/>
       <c r="C720" s="11"/>
@@ -14486,7 +14546,7 @@
       <c r="J720" s="1"/>
       <c r="K720" s="1"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11">
       <c r="A721" s="2"/>
       <c r="B721" s="1"/>
       <c r="C721" s="11"/>
@@ -14499,7 +14559,7 @@
       <c r="J721" s="1"/>
       <c r="K721" s="1"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11">
       <c r="A722" s="2"/>
       <c r="B722" s="1"/>
       <c r="C722" s="11"/>
@@ -14512,7 +14572,7 @@
       <c r="J722" s="1"/>
       <c r="K722" s="1"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11">
       <c r="A723" s="2"/>
       <c r="B723" s="1"/>
       <c r="C723" s="11"/>
@@ -14525,7 +14585,7 @@
       <c r="J723" s="1"/>
       <c r="K723" s="1"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11">
       <c r="A724" s="2"/>
       <c r="B724" s="1"/>
       <c r="C724" s="11"/>
@@ -14538,7 +14598,7 @@
       <c r="J724" s="1"/>
       <c r="K724" s="1"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11">
       <c r="A725" s="2"/>
       <c r="B725" s="1"/>
       <c r="C725" s="11"/>
@@ -14551,7 +14611,7 @@
       <c r="J725" s="1"/>
       <c r="K725" s="1"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11">
       <c r="A726" s="2"/>
       <c r="B726" s="1"/>
       <c r="C726" s="11"/>
@@ -14564,7 +14624,7 @@
       <c r="J726" s="1"/>
       <c r="K726" s="1"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11">
       <c r="A727" s="2"/>
       <c r="B727" s="1"/>
       <c r="C727" s="11"/>
@@ -14577,7 +14637,7 @@
       <c r="J727" s="1"/>
       <c r="K727" s="1"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11">
       <c r="A728" s="2"/>
       <c r="B728" s="1"/>
       <c r="C728" s="11"/>
@@ -14590,7 +14650,7 @@
       <c r="J728" s="1"/>
       <c r="K728" s="1"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11">
       <c r="A729" s="2"/>
       <c r="B729" s="1"/>
       <c r="C729" s="11"/>
@@ -14603,7 +14663,7 @@
       <c r="J729" s="1"/>
       <c r="K729" s="1"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11">
       <c r="A730" s="2"/>
       <c r="B730" s="1"/>
       <c r="C730" s="11"/>
@@ -14616,7 +14676,7 @@
       <c r="J730" s="1"/>
       <c r="K730" s="1"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11">
       <c r="A731" s="2"/>
       <c r="B731" s="1"/>
       <c r="C731" s="11"/>
@@ -14629,7 +14689,7 @@
       <c r="J731" s="1"/>
       <c r="K731" s="1"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11">
       <c r="A732" s="2"/>
       <c r="B732" s="1"/>
       <c r="C732" s="11"/>
@@ -14642,7 +14702,7 @@
       <c r="J732" s="1"/>
       <c r="K732" s="1"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11">
       <c r="A733" s="2"/>
       <c r="B733" s="1"/>
       <c r="C733" s="11"/>
@@ -14655,7 +14715,7 @@
       <c r="J733" s="1"/>
       <c r="K733" s="1"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11">
       <c r="A734" s="2"/>
       <c r="B734" s="1"/>
       <c r="C734" s="11"/>
@@ -14668,7 +14728,7 @@
       <c r="J734" s="1"/>
       <c r="K734" s="1"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11">
       <c r="A735" s="2"/>
       <c r="B735" s="1"/>
       <c r="C735" s="11"/>
@@ -14681,7 +14741,7 @@
       <c r="J735" s="1"/>
       <c r="K735" s="1"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11">
       <c r="A736" s="2"/>
       <c r="B736" s="1"/>
       <c r="C736" s="11"/>
@@ -14694,7 +14754,7 @@
       <c r="J736" s="1"/>
       <c r="K736" s="1"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11">
       <c r="A737" s="2"/>
       <c r="B737" s="1"/>
       <c r="C737" s="11"/>
@@ -14707,7 +14767,7 @@
       <c r="J737" s="1"/>
       <c r="K737" s="1"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11">
       <c r="A738" s="2"/>
       <c r="B738" s="1"/>
       <c r="C738" s="11"/>
@@ -14720,7 +14780,7 @@
       <c r="J738" s="1"/>
       <c r="K738" s="1"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11">
       <c r="A739" s="2"/>
       <c r="B739" s="1"/>
       <c r="C739" s="11"/>
@@ -14733,7 +14793,7 @@
       <c r="J739" s="1"/>
       <c r="K739" s="1"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11">
       <c r="A740" s="2"/>
       <c r="B740" s="1"/>
       <c r="C740" s="11"/>
@@ -14746,7 +14806,7 @@
       <c r="J740" s="1"/>
       <c r="K740" s="1"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11">
       <c r="A741" s="2"/>
       <c r="B741" s="1"/>
       <c r="C741" s="11"/>
@@ -14759,7 +14819,7 @@
       <c r="J741" s="1"/>
       <c r="K741" s="1"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11">
       <c r="A742" s="2"/>
       <c r="B742" s="1"/>
       <c r="C742" s="11"/>
@@ -14772,7 +14832,7 @@
       <c r="J742" s="1"/>
       <c r="K742" s="1"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11">
       <c r="A743" s="2"/>
       <c r="B743" s="1"/>
       <c r="C743" s="11"/>
@@ -14785,7 +14845,7 @@
       <c r="J743" s="1"/>
       <c r="K743" s="1"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11">
       <c r="A744" s="2"/>
       <c r="B744" s="1"/>
       <c r="C744" s="11"/>
@@ -14798,7 +14858,7 @@
       <c r="J744" s="1"/>
       <c r="K744" s="1"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11">
       <c r="A745" s="2"/>
       <c r="B745" s="1"/>
       <c r="C745" s="11"/>
@@ -14811,7 +14871,7 @@
       <c r="J745" s="1"/>
       <c r="K745" s="1"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11">
       <c r="A746" s="2"/>
       <c r="B746" s="1"/>
       <c r="C746" s="11"/>
@@ -14824,7 +14884,7 @@
       <c r="J746" s="1"/>
       <c r="K746" s="1"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11">
       <c r="A747" s="2"/>
       <c r="B747" s="1"/>
       <c r="C747" s="11"/>
@@ -14837,7 +14897,7 @@
       <c r="J747" s="1"/>
       <c r="K747" s="1"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11">
       <c r="A748" s="2"/>
       <c r="B748" s="1"/>
       <c r="C748" s="11"/>
@@ -14850,7 +14910,7 @@
       <c r="J748" s="1"/>
       <c r="K748" s="1"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11">
       <c r="A749" s="2"/>
       <c r="B749" s="1"/>
       <c r="C749" s="11"/>
@@ -14863,7 +14923,7 @@
       <c r="J749" s="1"/>
       <c r="K749" s="1"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11">
       <c r="A750" s="2"/>
       <c r="B750" s="1"/>
       <c r="C750" s="11"/>
@@ -14876,7 +14936,7 @@
       <c r="J750" s="1"/>
       <c r="K750" s="1"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11">
       <c r="A751" s="2"/>
       <c r="B751" s="1"/>
       <c r="C751" s="11"/>
@@ -14889,7 +14949,7 @@
       <c r="J751" s="1"/>
       <c r="K751" s="1"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11">
       <c r="A752" s="2"/>
       <c r="B752" s="1"/>
       <c r="C752" s="11"/>
@@ -14902,7 +14962,7 @@
       <c r="J752" s="1"/>
       <c r="K752" s="1"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11">
       <c r="A753" s="2"/>
       <c r="B753" s="1"/>
       <c r="C753" s="11"/>
@@ -14915,7 +14975,7 @@
       <c r="J753" s="1"/>
       <c r="K753" s="1"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11">
       <c r="A754" s="2"/>
       <c r="B754" s="1"/>
       <c r="C754" s="11"/>
@@ -14928,7 +14988,7 @@
       <c r="J754" s="1"/>
       <c r="K754" s="1"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11">
       <c r="A755" s="2"/>
       <c r="B755" s="1"/>
       <c r="C755" s="11"/>
@@ -14941,7 +15001,7 @@
       <c r="J755" s="1"/>
       <c r="K755" s="1"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11">
       <c r="A756" s="2"/>
       <c r="B756" s="1"/>
       <c r="C756" s="11"/>
@@ -14954,7 +15014,7 @@
       <c r="J756" s="1"/>
       <c r="K756" s="1"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11">
       <c r="A757" s="2"/>
       <c r="B757" s="1"/>
       <c r="C757" s="11"/>
@@ -14967,7 +15027,7 @@
       <c r="J757" s="1"/>
       <c r="K757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11">
       <c r="A758" s="2"/>
       <c r="B758" s="1"/>
       <c r="C758" s="11"/>
@@ -14980,7 +15040,7 @@
       <c r="J758" s="1"/>
       <c r="K758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11">
       <c r="A759" s="2"/>
       <c r="B759" s="1"/>
       <c r="C759" s="11"/>
@@ -14993,7 +15053,7 @@
       <c r="J759" s="1"/>
       <c r="K759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11">
       <c r="A760" s="2"/>
       <c r="B760" s="1"/>
       <c r="C760" s="11"/>
@@ -15006,7 +15066,7 @@
       <c r="J760" s="1"/>
       <c r="K760" s="1"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11">
       <c r="A761" s="2"/>
       <c r="B761" s="1"/>
       <c r="C761" s="11"/>
@@ -15019,7 +15079,7 @@
       <c r="J761" s="1"/>
       <c r="K761" s="1"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11">
       <c r="A762" s="2"/>
       <c r="B762" s="1"/>
       <c r="C762" s="11"/>
@@ -15032,7 +15092,7 @@
       <c r="J762" s="1"/>
       <c r="K762" s="1"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11">
       <c r="A763" s="2"/>
       <c r="B763" s="1"/>
       <c r="C763" s="11"/>
@@ -15045,7 +15105,7 @@
       <c r="J763" s="1"/>
       <c r="K763" s="1"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11">
       <c r="A764" s="2"/>
       <c r="B764" s="1"/>
       <c r="C764" s="11"/>
@@ -15058,7 +15118,7 @@
       <c r="J764" s="1"/>
       <c r="K764" s="1"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11">
       <c r="A765" s="2"/>
       <c r="B765" s="1"/>
       <c r="C765" s="11"/>
@@ -15071,7 +15131,7 @@
       <c r="J765" s="1"/>
       <c r="K765" s="1"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11">
       <c r="A766" s="2"/>
       <c r="B766" s="1"/>
       <c r="C766" s="11"/>
@@ -15084,7 +15144,7 @@
       <c r="J766" s="1"/>
       <c r="K766" s="1"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11">
       <c r="A767" s="2"/>
       <c r="B767" s="1"/>
       <c r="C767" s="11"/>
@@ -15097,7 +15157,7 @@
       <c r="J767" s="1"/>
       <c r="K767" s="1"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11">
       <c r="A768" s="2"/>
       <c r="B768" s="1"/>
       <c r="C768" s="11"/>
@@ -15110,7 +15170,7 @@
       <c r="J768" s="1"/>
       <c r="K768" s="1"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11">
       <c r="A769" s="2"/>
       <c r="B769" s="1"/>
       <c r="C769" s="11"/>
@@ -15123,7 +15183,7 @@
       <c r="J769" s="1"/>
       <c r="K769" s="1"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11">
       <c r="A770" s="2"/>
       <c r="B770" s="1"/>
       <c r="C770" s="11"/>
@@ -15136,7 +15196,7 @@
       <c r="J770" s="1"/>
       <c r="K770" s="1"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11">
       <c r="A771" s="2"/>
       <c r="B771" s="1"/>
       <c r="C771" s="11"/>
@@ -15149,7 +15209,7 @@
       <c r="J771" s="1"/>
       <c r="K771" s="1"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11">
       <c r="A772" s="2"/>
       <c r="B772" s="1"/>
       <c r="C772" s="11"/>
@@ -15162,7 +15222,7 @@
       <c r="J772" s="1"/>
       <c r="K772" s="1"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11">
       <c r="A773" s="2"/>
       <c r="B773" s="1"/>
       <c r="C773" s="11"/>
@@ -15175,7 +15235,7 @@
       <c r="J773" s="1"/>
       <c r="K773" s="1"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11">
       <c r="A774" s="2"/>
       <c r="B774" s="1"/>
       <c r="C774" s="11"/>
@@ -15188,7 +15248,7 @@
       <c r="J774" s="1"/>
       <c r="K774" s="1"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11">
       <c r="A775" s="2"/>
       <c r="B775" s="1"/>
       <c r="C775" s="11"/>
@@ -15201,7 +15261,7 @@
       <c r="J775" s="1"/>
       <c r="K775" s="1"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11">
       <c r="A776" s="2"/>
       <c r="B776" s="1"/>
       <c r="C776" s="11"/>
@@ -15214,7 +15274,7 @@
       <c r="J776" s="1"/>
       <c r="K776" s="1"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11">
       <c r="A777" s="2"/>
       <c r="B777" s="1"/>
       <c r="C777" s="11"/>
@@ -15227,7 +15287,7 @@
       <c r="J777" s="1"/>
       <c r="K777" s="1"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11">
       <c r="A778" s="2"/>
       <c r="B778" s="1"/>
       <c r="C778" s="11"/>
@@ -15240,7 +15300,7 @@
       <c r="J778" s="1"/>
       <c r="K778" s="1"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11">
       <c r="A779" s="2"/>
       <c r="B779" s="1"/>
       <c r="C779" s="11"/>
@@ -15253,7 +15313,7 @@
       <c r="J779" s="1"/>
       <c r="K779" s="1"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11">
       <c r="A780" s="2"/>
       <c r="B780" s="1"/>
       <c r="C780" s="11"/>
@@ -15266,7 +15326,7 @@
       <c r="J780" s="1"/>
       <c r="K780" s="1"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11">
       <c r="A781" s="2"/>
       <c r="B781" s="1"/>
       <c r="C781" s="11"/>
@@ -15279,7 +15339,7 @@
       <c r="J781" s="1"/>
       <c r="K781" s="1"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11">
       <c r="A782" s="2"/>
       <c r="B782" s="1"/>
       <c r="C782" s="11"/>
@@ -15292,7 +15352,7 @@
       <c r="J782" s="1"/>
       <c r="K782" s="1"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11">
       <c r="A783" s="2"/>
       <c r="B783" s="1"/>
       <c r="C783" s="11"/>
@@ -15305,7 +15365,7 @@
       <c r="J783" s="1"/>
       <c r="K783" s="1"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11">
       <c r="A784" s="2"/>
       <c r="B784" s="1"/>
       <c r="C784" s="11"/>
@@ -15318,7 +15378,7 @@
       <c r="J784" s="1"/>
       <c r="K784" s="1"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11">
       <c r="A785" s="2"/>
       <c r="B785" s="1"/>
       <c r="C785" s="11"/>
@@ -15331,7 +15391,7 @@
       <c r="J785" s="1"/>
       <c r="K785" s="1"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11">
       <c r="A786" s="2"/>
       <c r="B786" s="1"/>
       <c r="C786" s="11"/>
@@ -15344,7 +15404,7 @@
       <c r="J786" s="1"/>
       <c r="K786" s="1"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11">
       <c r="A787" s="2"/>
       <c r="B787" s="1"/>
       <c r="C787" s="11"/>
@@ -15357,7 +15417,7 @@
       <c r="J787" s="1"/>
       <c r="K787" s="1"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11">
       <c r="A788" s="2"/>
       <c r="B788" s="1"/>
       <c r="C788" s="11"/>
@@ -15370,7 +15430,7 @@
       <c r="J788" s="1"/>
       <c r="K788" s="1"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11">
       <c r="A789" s="2"/>
       <c r="B789" s="1"/>
       <c r="C789" s="11"/>
@@ -15383,7 +15443,7 @@
       <c r="J789" s="1"/>
       <c r="K789" s="1"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11">
       <c r="A790" s="2"/>
       <c r="B790" s="1"/>
       <c r="C790" s="11"/>
@@ -15396,7 +15456,7 @@
       <c r="J790" s="1"/>
       <c r="K790" s="1"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11">
       <c r="A791" s="2"/>
       <c r="B791" s="1"/>
       <c r="C791" s="11"/>
@@ -15409,7 +15469,7 @@
       <c r="J791" s="1"/>
       <c r="K791" s="1"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11">
       <c r="A792" s="2"/>
       <c r="B792" s="1"/>
       <c r="C792" s="11"/>
@@ -15422,7 +15482,7 @@
       <c r="J792" s="1"/>
       <c r="K792" s="1"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11">
       <c r="A793" s="2"/>
       <c r="B793" s="1"/>
       <c r="C793" s="11"/>
@@ -15435,7 +15495,7 @@
       <c r="J793" s="1"/>
       <c r="K793" s="1"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11">
       <c r="A794" s="2"/>
       <c r="B794" s="1"/>
       <c r="C794" s="11"/>
@@ -15448,7 +15508,7 @@
       <c r="J794" s="1"/>
       <c r="K794" s="1"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11">
       <c r="A795" s="2"/>
       <c r="B795" s="1"/>
       <c r="C795" s="11"/>
@@ -15461,7 +15521,7 @@
       <c r="J795" s="1"/>
       <c r="K795" s="1"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11">
       <c r="A796" s="2"/>
       <c r="B796" s="1"/>
       <c r="C796" s="11"/>
@@ -15474,7 +15534,7 @@
       <c r="J796" s="1"/>
       <c r="K796" s="1"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11">
       <c r="A797" s="2"/>
       <c r="B797" s="1"/>
       <c r="C797" s="11"/>
@@ -15487,7 +15547,7 @@
       <c r="J797" s="1"/>
       <c r="K797" s="1"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11">
       <c r="A798" s="2"/>
       <c r="B798" s="1"/>
       <c r="C798" s="11"/>
@@ -15500,7 +15560,7 @@
       <c r="J798" s="1"/>
       <c r="K798" s="1"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11">
       <c r="A799" s="2"/>
       <c r="B799" s="1"/>
       <c r="C799" s="11"/>
@@ -15513,7 +15573,7 @@
       <c r="J799" s="1"/>
       <c r="K799" s="1"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11">
       <c r="A800" s="2"/>
       <c r="B800" s="1"/>
       <c r="C800" s="11"/>
@@ -15526,7 +15586,7 @@
       <c r="J800" s="1"/>
       <c r="K800" s="1"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11">
       <c r="A801" s="2"/>
       <c r="B801" s="1"/>
       <c r="C801" s="11"/>
@@ -15539,7 +15599,7 @@
       <c r="J801" s="1"/>
       <c r="K801" s="1"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11">
       <c r="A802" s="2"/>
       <c r="B802" s="1"/>
       <c r="C802" s="11"/>
@@ -15552,7 +15612,7 @@
       <c r="J802" s="1"/>
       <c r="K802" s="1"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11">
       <c r="A803" s="2"/>
       <c r="B803" s="1"/>
       <c r="C803" s="11"/>
@@ -15565,7 +15625,7 @@
       <c r="J803" s="1"/>
       <c r="K803" s="1"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11">
       <c r="A804" s="2"/>
       <c r="B804" s="1"/>
       <c r="C804" s="11"/>
